--- a/Fig_Tab.xlsx
+++ b/Fig_Tab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Avantgarde\Paper-Avant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0622BF5-1C21-44A8-87D4-CFE010136B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2750350-C584-4362-AF7E-B0AA9A4D7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-936" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="7" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Painel B: 2009</t>
   </si>
   <si>
-    <t>Painel C: 2010 - 2017</t>
-  </si>
-  <si>
     <t>Menores.Vol</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>3 Portfólios (0.3; 0.4; 0.3)</t>
+  </si>
+  <si>
+    <t>Painel C: 2010 - 2021</t>
   </si>
 </sst>
 </file>
@@ -304,13 +304,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,42 +728,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE57FFD1-8038-474A-B57C-2E435CF14567}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -779,73 +779,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3E553-061D-44F2-8E07-24EE4FC2E55E}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -927,83 +927,83 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-25.99</v>
+        <v>-1.53</v>
       </c>
       <c r="D6" s="2">
-        <v>5.69</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="2">
-        <v>-6.36</v>
+        <v>-0.37</v>
       </c>
       <c r="F6" s="2">
-        <v>-24.11</v>
+        <v>-1.54</v>
       </c>
       <c r="G6" s="2">
-        <v>-25.56</v>
+        <v>-1.65</v>
       </c>
       <c r="H6" s="2">
-        <v>-29.02</v>
+        <v>-1.89</v>
       </c>
       <c r="I6" s="2">
-        <v>-14.72</v>
+        <v>-0.91</v>
       </c>
       <c r="J6" s="2">
-        <v>-17.809999999999999</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="K6" s="2">
-        <v>-17.72</v>
+        <v>-1.04</v>
       </c>
       <c r="L6" s="2">
-        <v>-17.27</v>
+        <v>-0.95</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1161,63 +1161,63 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1340,35 +1340,35 @@
         <v>-14.89</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1408,41 +1408,41 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>-11.89</v>
+        <v>-0.61</v>
       </c>
       <c r="D23" s="2">
-        <v>-29.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E23" s="2">
-        <v>-18.87</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1531,44 +1531,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB42E0C-D771-465A-828B-90D62E2EF4E4}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1608,41 +1608,41 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-4.66</v>
+        <v>0.05</v>
       </c>
       <c r="D6" s="2">
-        <v>-29.56</v>
+        <v>-2.09</v>
       </c>
       <c r="E6" s="2">
-        <v>-18.05</v>
+        <v>-1.19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1716,35 +1716,35 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>75.16</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1784,41 +1784,41 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>1.95</v>
+        <v>0.11</v>
       </c>
       <c r="D16" s="2">
-        <v>2.39</v>
+        <v>0.12</v>
       </c>
       <c r="E16" s="2">
-        <v>4.45</v>
+        <v>0.18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>-16.07</v>
+        <v>0.16</v>
       </c>
       <c r="D17" s="2">
-        <v>7.33</v>
+        <v>1.07</v>
       </c>
       <c r="E17" s="2">
-        <v>18.71</v>
+        <v>2.33</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>59.51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,35 +1892,35 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1960,41 +1960,41 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>-1.17</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D28" s="2">
-        <v>-13.8</v>
+        <v>-0.96</v>
       </c>
       <c r="E28" s="2">
-        <v>-20.74</v>
+        <v>-0.94</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>-2.2400000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
@@ -2083,40 +2083,40 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>-0.69</v>
@@ -2128,9 +2128,9 @@
         <v>-3.25</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>-0.44</v>
@@ -2142,9 +2142,9 @@
         <v>-4.3899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>-1.08</v>
@@ -2156,9 +2156,9 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>-1.1399999999999999</v>
@@ -2170,29 +2170,29 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>-0.4</v>
@@ -2204,9 +2204,9 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>-0.25</v>
@@ -2218,9 +2218,9 @@
         <v>-1.45</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>-0.63</v>
@@ -2232,9 +2232,9 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>-0.66</v>
@@ -2259,18 +2259,1531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E1BAD1-69FF-41AE-A575-8A051889C809}">
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.98</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13.16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14.18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>13.16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11.64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-10.14</v>
+      </c>
+      <c r="N3" s="2">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="D4" s="2">
+        <v>28.91</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26.24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25.58</v>
+      </c>
+      <c r="H4" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25.78</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25.11</v>
+      </c>
+      <c r="K4" s="2">
+        <v>26.61</v>
+      </c>
+      <c r="L4" s="2">
+        <v>29.14</v>
+      </c>
+      <c r="M4" s="2">
+        <v>26.05</v>
+      </c>
+      <c r="N4" s="2">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1.86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.39</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.46</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1.92</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-7.59</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-19.16</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-0.51</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-7.09</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1.55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-1.67</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-2.61</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-1.36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.93</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13.33</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14.36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>11.36</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="K14" s="2">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13.58</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>33.18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.79</v>
+      </c>
+      <c r="E15" s="2">
+        <v>27.76</v>
+      </c>
+      <c r="F15" s="2">
+        <v>28.14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="H15" s="2">
+        <v>26.66</v>
+      </c>
+      <c r="I15" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25.64</v>
+      </c>
+      <c r="K15" s="2">
+        <v>24.21</v>
+      </c>
+      <c r="L15" s="2">
+        <v>24.93</v>
+      </c>
+      <c r="M15" s="2">
+        <v>25.33</v>
+      </c>
+      <c r="N15" s="2">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.76</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-1.86</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-1.38</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-0.93</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-2.69</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-2.82</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-0.24</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-3.29</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1.46</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-5.23</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-5.4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-13.63</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-5.4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-3.67</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-7.43</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-7.63</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1.62</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-0.65</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-2.62</v>
+      </c>
+      <c r="K21" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>16.63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>16.84</v>
+      </c>
+      <c r="F25" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="L25" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="M25" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="N25" s="2">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>27.24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24.78</v>
+      </c>
+      <c r="E26" s="2">
+        <v>25.46</v>
+      </c>
+      <c r="F26" s="2">
+        <v>25.38</v>
+      </c>
+      <c r="G26" s="2">
+        <v>25.65</v>
+      </c>
+      <c r="H26" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="I26" s="2">
+        <v>26.89</v>
+      </c>
+      <c r="J26" s="2">
+        <v>28.11</v>
+      </c>
+      <c r="K26" s="2">
+        <v>29.78</v>
+      </c>
+      <c r="L26" s="2">
+        <v>35.58</v>
+      </c>
+      <c r="M26" s="2">
+        <v>30.26</v>
+      </c>
+      <c r="N26" s="2">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-1.42</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-1.29</v>
+      </c>
+      <c r="J28" s="2">
+        <v>-2.56</v>
+      </c>
+      <c r="K28" s="2">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="L28" s="2">
+        <v>-2.61</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-0.92</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-0.79</v>
+      </c>
+      <c r="J29" s="2">
+        <v>-5.43</v>
+      </c>
+      <c r="K29" s="2">
+        <v>-5.3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>-12.72</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-0.62</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-3.37</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-3.15</v>
+      </c>
+      <c r="J31" s="2">
+        <v>-7.54</v>
+      </c>
+      <c r="K31" s="2">
+        <v>-7</v>
+      </c>
+      <c r="L31" s="2">
+        <v>-12.85</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-1.18</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-1.04</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-2.35</v>
+      </c>
+      <c r="K32" s="2">
+        <v>-1.82</v>
+      </c>
+      <c r="L32" s="2">
+        <v>-2.37</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17.59</v>
+      </c>
+      <c r="D36" s="2">
+        <v>13.31</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12.68</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="G36" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="H36" s="2">
+        <v>13.07</v>
+      </c>
+      <c r="I36" s="2">
+        <v>13.31</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5.61</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9.74</v>
+      </c>
+      <c r="L36" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="M36" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="N36" s="2">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>25.38</v>
+      </c>
+      <c r="D37" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="E37" s="2">
+        <v>25.05</v>
+      </c>
+      <c r="F37" s="2">
+        <v>26.07</v>
+      </c>
+      <c r="G37" s="2">
+        <v>28.48</v>
+      </c>
+      <c r="H37" s="2">
+        <v>29.66</v>
+      </c>
+      <c r="I37" s="2">
+        <v>28.36</v>
+      </c>
+      <c r="J37" s="2">
+        <v>30.54</v>
+      </c>
+      <c r="K37" s="2">
+        <v>30.86</v>
+      </c>
+      <c r="L37" s="2">
+        <v>34.46</v>
+      </c>
+      <c r="M37" s="2">
+        <v>27.07</v>
+      </c>
+      <c r="N37" s="2">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.35</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-0.51</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1.81</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-0.99</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="I39" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="J39" s="2">
+        <v>-1.96</v>
+      </c>
+      <c r="K39" s="2">
+        <v>-0.99</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-1.49</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-3.29</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-0.82</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J40" s="2">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-1.26</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-5.54</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-5.47</v>
+      </c>
+      <c r="N40" s="2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="M41" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-5.27</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-2.61</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J42" s="2">
+        <v>-6.64</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-2.85</v>
+      </c>
+      <c r="L42" s="2">
+        <v>-6.1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-1.54</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-0.67</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-0.68</v>
+      </c>
+      <c r="L43" s="2">
+        <v>-1.17</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B34:N34"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A0CA3-ACCB-49A7-B2F6-AEE57C6FC935}">
+  <dimension ref="B1:M47"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2283,1572 +3796,60 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.71</v>
-      </c>
-      <c r="D3" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="E3" s="2">
-        <v>13.16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14.18</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13.35</v>
-      </c>
-      <c r="H3" s="2">
-        <v>13.16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>13.75</v>
-      </c>
-      <c r="J3" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.93</v>
-      </c>
-      <c r="L3" s="2">
-        <v>11.64</v>
-      </c>
-      <c r="M3" s="2">
-        <v>-10.14</v>
-      </c>
-      <c r="N3" s="2">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>32.42</v>
-      </c>
-      <c r="D4" s="2">
-        <v>28.91</v>
-      </c>
-      <c r="E4" s="2">
-        <v>28.53</v>
-      </c>
-      <c r="F4" s="2">
-        <v>26.24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>25.58</v>
-      </c>
-      <c r="H4" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>25.78</v>
-      </c>
-      <c r="J4" s="2">
-        <v>25.11</v>
-      </c>
-      <c r="K4" s="2">
-        <v>26.61</v>
-      </c>
-      <c r="L4" s="2">
-        <v>29.14</v>
-      </c>
-      <c r="M4" s="2">
-        <v>26.05</v>
-      </c>
-      <c r="N4" s="2">
-        <v>26.26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-0.23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-28.37</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-9.4499999999999993</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-6.07</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-2.75</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-6.41</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-7.4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-4.71</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-29.15</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-40.369999999999997</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-23.9</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-7.59</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-2.89</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-4.6900000000000004</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-19.16</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-0.21</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-8.0500000000000007</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-0.9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.09</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-0.51</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="K9" s="2">
-        <v>-7.09</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="M9" s="2">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-1.55</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-0.22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-1.67</v>
-      </c>
-      <c r="K10" s="2">
-        <v>-2.61</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-1.36</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.93</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13.33</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9.52</v>
-      </c>
-      <c r="G14" s="2">
-        <v>14.36</v>
-      </c>
-      <c r="H14" s="2">
-        <v>11.36</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.33</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="K14" s="2">
-        <v>14</v>
-      </c>
-      <c r="L14" s="2">
-        <v>13.58</v>
-      </c>
-      <c r="M14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="N14" s="2">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
-        <v>33.18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30.79</v>
-      </c>
-      <c r="E15" s="2">
-        <v>27.76</v>
-      </c>
-      <c r="F15" s="2">
-        <v>28.14</v>
-      </c>
-      <c r="G15" s="2">
-        <v>27.27</v>
-      </c>
-      <c r="H15" s="2">
-        <v>26.66</v>
-      </c>
-      <c r="I15" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="J15" s="2">
-        <v>25.64</v>
-      </c>
-      <c r="K15" s="2">
-        <v>24.21</v>
-      </c>
-      <c r="L15" s="2">
-        <v>24.93</v>
-      </c>
-      <c r="M15" s="2">
-        <v>25.33</v>
-      </c>
-      <c r="N15" s="2">
-        <v>26.26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-0.21</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-12.98</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-5.15</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-28.43</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-21.6</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-2.15</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-14.87</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-39.07</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-40.520000000000003</v>
-      </c>
-      <c r="K17" s="2">
-        <v>-3.98</v>
-      </c>
-      <c r="L17" s="2">
-        <v>-5.33</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-1.0900000000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-3.29</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-1.46</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-5.23</v>
-      </c>
-      <c r="J18" s="2">
-        <v>-5.4</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M18" s="2">
-        <v>-13.63</v>
-      </c>
-      <c r="N18" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-5.4</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-3.67</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="H20" s="2">
-        <v>-2.0699999999999998</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-7.43</v>
-      </c>
-      <c r="J20" s="2">
-        <v>-7.63</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-1.62</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H21" s="2">
-        <v>-0.65</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="J21" s="2">
-        <v>-2.62</v>
-      </c>
-      <c r="K21" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <v>16.63</v>
-      </c>
-      <c r="E25" s="2">
-        <v>16.84</v>
-      </c>
-      <c r="F25" s="2">
-        <v>13.25</v>
-      </c>
-      <c r="G25" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>10.11</v>
-      </c>
-      <c r="I25" s="2">
-        <v>10.26</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="L25" s="2">
-        <v>-2.99</v>
-      </c>
-      <c r="M25" s="2">
-        <v>15.12</v>
-      </c>
-      <c r="N25" s="2">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2">
-        <v>27.24</v>
-      </c>
-      <c r="D26" s="2">
-        <v>24.78</v>
-      </c>
-      <c r="E26" s="2">
-        <v>25.46</v>
-      </c>
-      <c r="F26" s="2">
-        <v>25.38</v>
-      </c>
-      <c r="G26" s="2">
-        <v>25.65</v>
-      </c>
-      <c r="H26" s="2">
-        <v>26.32</v>
-      </c>
-      <c r="I26" s="2">
-        <v>26.89</v>
-      </c>
-      <c r="J26" s="2">
-        <v>28.11</v>
-      </c>
-      <c r="K26" s="2">
-        <v>29.78</v>
-      </c>
-      <c r="L26" s="2">
-        <v>35.58</v>
-      </c>
-      <c r="M26" s="2">
-        <v>30.26</v>
-      </c>
-      <c r="N26" s="2">
-        <v>26.26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="H27" s="2">
-        <v>-0.04</v>
-      </c>
-      <c r="I27" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="J27" s="2">
-        <v>-0.19</v>
-      </c>
-      <c r="K27" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="L27" s="2">
-        <v>-0.36</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D28" s="2">
-        <v>7.55</v>
-      </c>
-      <c r="E28" s="2">
-        <v>9.07</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-7.95</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-22.16</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-20.260000000000002</v>
-      </c>
-      <c r="J28" s="2">
-        <v>-37.39</v>
-      </c>
-      <c r="K28" s="2">
-        <v>-31.2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>-37.729999999999997</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7.99</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="H29" s="2">
-        <v>-0.92</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-0.79</v>
-      </c>
-      <c r="J29" s="2">
-        <v>-5.43</v>
-      </c>
-      <c r="K29" s="2">
-        <v>-5.3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>-12.72</v>
-      </c>
-      <c r="M29" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="N29" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M30" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6.18</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.62</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-0.62</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-3.37</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-3.15</v>
-      </c>
-      <c r="J31" s="2">
-        <v>-7.54</v>
-      </c>
-      <c r="K31" s="2">
-        <v>-7</v>
-      </c>
-      <c r="L31" s="2">
-        <v>-12.85</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-0.22</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H32" s="2">
-        <v>-1.18</v>
-      </c>
-      <c r="I32" s="2">
-        <v>-1.04</v>
-      </c>
-      <c r="J32" s="2">
-        <v>-2.35</v>
-      </c>
-      <c r="K32" s="2">
-        <v>-1.82</v>
-      </c>
-      <c r="L32" s="2">
-        <v>-2.37</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2">
-        <v>17.59</v>
-      </c>
-      <c r="D36" s="2">
-        <v>13.31</v>
-      </c>
-      <c r="E36" s="2">
-        <v>12.68</v>
-      </c>
-      <c r="F36" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="G36" s="2">
-        <v>10.23</v>
-      </c>
-      <c r="H36" s="2">
-        <v>13.07</v>
-      </c>
-      <c r="I36" s="2">
-        <v>13.31</v>
-      </c>
-      <c r="J36" s="2">
-        <v>5.61</v>
-      </c>
-      <c r="K36" s="2">
-        <v>9.74</v>
-      </c>
-      <c r="L36" s="2">
-        <v>4.99</v>
-      </c>
-      <c r="M36" s="2">
-        <v>5.07</v>
-      </c>
-      <c r="N36" s="2">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <v>25.38</v>
-      </c>
-      <c r="D37" s="2">
-        <v>25.04</v>
-      </c>
-      <c r="E37" s="2">
-        <v>25.05</v>
-      </c>
-      <c r="F37" s="2">
-        <v>26.07</v>
-      </c>
-      <c r="G37" s="2">
-        <v>28.48</v>
-      </c>
-      <c r="H37" s="2">
-        <v>29.66</v>
-      </c>
-      <c r="I37" s="2">
-        <v>28.36</v>
-      </c>
-      <c r="J37" s="2">
-        <v>30.54</v>
-      </c>
-      <c r="K37" s="2">
-        <v>30.86</v>
-      </c>
-      <c r="L37" s="2">
-        <v>34.46</v>
-      </c>
-      <c r="M37" s="2">
-        <v>27.07</v>
-      </c>
-      <c r="N37" s="2">
-        <v>26.26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-0.13</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="I38" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J38" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="K38" s="2">
-        <v>-0.04</v>
-      </c>
-      <c r="L38" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.81</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-5.73</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-8.27</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-27.62</v>
-      </c>
-      <c r="G39" s="2">
-        <v>-15.83</v>
-      </c>
-      <c r="H39" s="2">
-        <v>-6.27</v>
-      </c>
-      <c r="I39" s="2">
-        <v>-5.58</v>
-      </c>
-      <c r="J39" s="2">
-        <v>-29.9</v>
-      </c>
-      <c r="K39" s="2">
-        <v>-16.21</v>
-      </c>
-      <c r="L39" s="2">
-        <v>-23.8</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5.81</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-3.29</v>
-      </c>
-      <c r="G40" s="2">
-        <v>-0.82</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="J40" s="2">
-        <v>-4.9800000000000004</v>
-      </c>
-      <c r="K40" s="2">
-        <v>-1.26</v>
-      </c>
-      <c r="L40" s="2">
-        <v>-5.54</v>
-      </c>
-      <c r="M40" s="2">
-        <v>-5.47</v>
-      </c>
-      <c r="N40" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="M41" s="2">
-        <v>-0.22</v>
-      </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2">
-        <v>3.86</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-5.27</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-2.61</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-0.13</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="2">
-        <v>-6.64</v>
-      </c>
-      <c r="K42" s="2">
-        <v>-2.85</v>
-      </c>
-      <c r="L42" s="2">
-        <v>-6.1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E43" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-1.54</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-0.67</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>-1.7</v>
-      </c>
-      <c r="K43" s="2">
-        <v>-0.68</v>
-      </c>
-      <c r="L43" s="2">
-        <v>-1.17</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B34:N34"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A0CA3-ACCB-49A7-B2F6-AEE57C6FC935}">
-  <dimension ref="B1:M47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3924,81 +3925,81 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="2">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="2">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="J6" s="2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>-13.92</v>
+        <v>-0.77</v>
       </c>
       <c r="D7" s="2">
-        <v>-3.62</v>
+        <v>-0.22</v>
       </c>
       <c r="E7" s="2">
-        <v>-16.149999999999999</v>
+        <v>-1.01</v>
       </c>
       <c r="F7" s="2">
-        <v>-25.11</v>
+        <v>-1.58</v>
       </c>
       <c r="G7" s="2">
-        <v>-11.33</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="H7" s="2">
-        <v>-17.52</v>
+        <v>-1.03</v>
       </c>
       <c r="I7" s="2">
-        <v>-8.25</v>
+        <v>-0.5</v>
       </c>
       <c r="J7" s="2">
-        <v>-34.33</v>
+        <v>-2.29</v>
       </c>
       <c r="K7" s="2">
-        <v>-26.99</v>
+        <v>-1.74</v>
       </c>
       <c r="L7" s="2">
-        <v>-20.3</v>
+        <v>-1.2</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4072,7 +4073,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4108,7 +4109,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4144,77 +4145,77 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4290,81 +4291,81 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D18" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G18" s="2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="J18" s="2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L18" s="2">
         <v>0.01</v>
       </c>
       <c r="M18" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-9.2799999999999994</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D19" s="2">
-        <v>-7.34</v>
+        <v>-0.41</v>
       </c>
       <c r="E19" s="2">
-        <v>-24.97</v>
+        <v>-1.53</v>
       </c>
       <c r="F19" s="2">
-        <v>-7.51</v>
+        <v>-0.42</v>
       </c>
       <c r="G19" s="2">
-        <v>-32.97</v>
+        <v>-2.19</v>
       </c>
       <c r="H19" s="2">
-        <v>-36.590000000000003</v>
+        <v>-2.48</v>
       </c>
       <c r="I19" s="2">
-        <v>-15.84</v>
+        <v>-0.93</v>
       </c>
       <c r="J19" s="2">
-        <v>-15.07</v>
+        <v>-0.88</v>
       </c>
       <c r="K19" s="2">
-        <v>-16.059999999999999</v>
+        <v>-1.01</v>
       </c>
       <c r="L19" s="2">
-        <v>-11.09</v>
+        <v>-0.66</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -4438,7 +4439,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +4475,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4510,77 +4511,77 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -4656,81 +4657,81 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="D30" s="2">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.03</v>
       </c>
       <c r="F30" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G30" s="2">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H30" s="2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I30" s="2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J30" s="2">
-        <v>-0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="K30" s="2">
-        <v>-0.31</v>
+        <v>-0.01</v>
       </c>
       <c r="L30" s="2">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>12.05</v>
+        <v>0.78</v>
       </c>
       <c r="D31" s="2">
-        <v>-2.42</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>19.239999999999998</v>
+        <v>1.21</v>
       </c>
       <c r="F31" s="2">
-        <v>-4.1399999999999997</v>
+        <v>-0.19</v>
       </c>
       <c r="G31" s="2">
-        <v>-22.27</v>
+        <v>-1.42</v>
       </c>
       <c r="H31" s="2">
-        <v>-21.83</v>
+        <v>-1.38</v>
       </c>
       <c r="I31" s="2">
-        <v>-9.42</v>
+        <v>-0.53</v>
       </c>
       <c r="J31" s="2">
-        <v>-42.67</v>
+        <v>-3.02</v>
       </c>
       <c r="K31" s="2">
-        <v>-42.83</v>
+        <v>-3.05</v>
       </c>
       <c r="L31" s="2">
-        <v>-30.61</v>
+        <v>-1.95</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
@@ -4804,7 +4805,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
@@ -4840,7 +4841,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
@@ -4876,77 +4877,77 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="5"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -5022,81 +5023,81 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="2">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="2">
         <v>0.02</v>
       </c>
-      <c r="E42" s="2">
-        <v>0.16</v>
-      </c>
       <c r="F42" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G42" s="2">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>0.02</v>
       </c>
-      <c r="J42" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="K42" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="L42" s="2">
-        <v>-0.23</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2">
-        <v>-5.1100000000000003</v>
+        <v>-0.25</v>
       </c>
       <c r="D43" s="2">
-        <v>-12.23</v>
+        <v>-0.76</v>
       </c>
       <c r="E43" s="2">
-        <v>5.07</v>
+        <v>0.35</v>
       </c>
       <c r="F43" s="2">
-        <v>-11.66</v>
+        <v>-0.68</v>
       </c>
       <c r="G43" s="2">
-        <v>-37.79</v>
+        <v>-2.59</v>
       </c>
       <c r="H43" s="2">
-        <v>-4.43</v>
+        <v>-0.25</v>
       </c>
       <c r="I43" s="2">
-        <v>-7.88</v>
+        <v>-0.4</v>
       </c>
       <c r="J43" s="2">
-        <v>-21.08</v>
+        <v>-1.34</v>
       </c>
       <c r="K43" s="2">
-        <v>-22.28</v>
+        <v>-1.4</v>
       </c>
       <c r="L43" s="2">
-        <v>-27.37</v>
+        <v>-1.68</v>
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
@@ -5206,7 +5207,7 @@
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -5250,6 +5251,7 @@
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B37:M37"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:M1"/>
@@ -5258,7 +5260,6 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5268,72 +5269,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C651A25-6C8A-421B-87C7-4F2D4204948E}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:AC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5415,83 +5416,83 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="2">
         <v>0.01</v>
       </c>
       <c r="J5" s="2">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-26.78</v>
+        <v>-1.62</v>
       </c>
       <c r="D6" s="2">
-        <v>-20.13</v>
+        <v>-1.22</v>
       </c>
       <c r="E6" s="2">
-        <v>-10.93</v>
+        <v>-0.65</v>
       </c>
       <c r="F6" s="2">
-        <v>-30.04</v>
+        <v>-1.98</v>
       </c>
       <c r="G6" s="2">
-        <v>-21.72</v>
+        <v>-1.39</v>
       </c>
       <c r="H6" s="2">
-        <v>-20.51</v>
+        <v>-1.29</v>
       </c>
       <c r="I6" s="2">
-        <v>-12.77</v>
+        <v>-0.78</v>
       </c>
       <c r="J6" s="2">
-        <v>11.72</v>
+        <v>0.76</v>
       </c>
       <c r="K6" s="2">
-        <v>-26.65</v>
+        <v>-1.63</v>
       </c>
       <c r="L6" s="2">
-        <v>-14.23</v>
+        <v>-0.65</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5571,7 +5572,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5610,7 +5611,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -5649,63 +5650,63 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -5828,35 +5829,35 @@
         <v>-14.89</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -5896,41 +5897,41 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>-11.89</v>
+        <v>-0.61</v>
       </c>
       <c r="D23" s="2">
-        <v>-29.97</v>
+        <v>-1.95</v>
       </c>
       <c r="E23" s="2">
-        <v>-18.87</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -5968,7 +5969,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>

--- a/Fig_Tab.xlsx
+++ b/Fig_Tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Avantgarde\Paper-Avant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2750350-C584-4362-AF7E-B0AA9A4D7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C30A55-D055-44F0-90FA-80E844EDD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="T3" sheetId="3" r:id="rId4"/>
     <sheet name="T4" sheetId="4" r:id="rId5"/>
     <sheet name="T5" sheetId="5" r:id="rId6"/>
-    <sheet name="T7" sheetId="6" r:id="rId7"/>
+    <sheet name="T6" sheetId="8" r:id="rId7"/>
+    <sheet name="T7" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="58">
   <si>
     <t>D1</t>
   </si>
@@ -209,6 +210,12 @@
   </si>
   <si>
     <t>Painel C: 2010 - 2021</t>
+  </si>
+  <si>
+    <t>Dn</t>
+  </si>
+  <si>
+    <t>Painel D: Quality</t>
   </si>
 </sst>
 </file>
@@ -729,7 +736,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5245,13 +5252,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:M1"/>
@@ -5260,12 +5260,361 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A613BBA5-36C2-4A59-B471-CD1C05B2DBF6}">
+  <dimension ref="B1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1.58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1.21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C651A25-6C8A-421B-87C7-4F2D4204948E}">
   <dimension ref="B1:N27"/>
   <sheetViews>

--- a/Fig_Tab.xlsx
+++ b/Fig_Tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Avantgarde\Paper-Avant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C30A55-D055-44F0-90FA-80E844EDD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96442D33-C5B1-49C4-9FFB-0F18695DA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="T5" sheetId="5" r:id="rId6"/>
     <sheet name="T6" sheetId="8" r:id="rId7"/>
     <sheet name="T7" sheetId="6" r:id="rId8"/>
+    <sheet name="F8" sheetId="9" r:id="rId9"/>
+    <sheet name="T8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="61">
   <si>
     <t>D1</t>
   </si>
@@ -125,9 +127,6 @@
     <t>Painel C</t>
   </si>
   <si>
-    <t>D1 - D10</t>
-  </si>
-  <si>
     <t>Painel A: 2003 - 2008</t>
   </si>
   <si>
@@ -200,9 +199,6 @@
     <t>30% menor qualidade</t>
   </si>
   <si>
-    <t>BAB</t>
-  </si>
-  <si>
     <t>10 Portfólios</t>
   </si>
   <si>
@@ -216,6 +212,21 @@
   </si>
   <si>
     <t>Painel D: Quality</t>
+  </si>
+  <si>
+    <t>D1_D10</t>
+  </si>
+  <si>
+    <t>Beta Puro</t>
+  </si>
+  <si>
+    <t>Beta Blume</t>
+  </si>
+  <si>
+    <t>Max. Drawdown</t>
+  </si>
+  <si>
+    <t>Tabela 8 - Strategy Metrics</t>
   </si>
 </sst>
 </file>
@@ -348,22 +359,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>223848</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83277</xdr:rowOff>
+      <xdr:colOff>387265</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67DCEBE-C42E-4243-A666-5AE6832991EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E43A4BC-9DC0-416F-B10D-05AB4ADDE18B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -379,8 +390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="7537143" cy="4342857"/>
+          <a:off x="104775" y="247650"/>
+          <a:ext cx="7597690" cy="3580745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,22 +403,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264796</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>521971</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>30310</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>512386</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170563</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A0E944-EE04-460F-A79D-AFCE769EB9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778DA531-5DF7-4BD8-992F-647307F3C8F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,8 +434,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7579996" y="285750"/>
-          <a:ext cx="7570470" cy="4314655"/>
+          <a:off x="7867650" y="234764"/>
+          <a:ext cx="7884736" cy="3555299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18133</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E1B529-33EC-48DA-B454-D5D0FB9BFBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="281940"/>
+          <a:ext cx="7333333" cy="3666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,14 +796,14 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -758,7 +818,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -782,12 +842,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE61803-7805-43C1-88A4-6CCB2B3DF1E5}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22.97</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2">
+        <v>65.97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>64.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3E553-061D-44F2-8E07-24EE4FC2E55E}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD39"/>
+    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>11</v>
@@ -857,37 +1056,37 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>10.09</v>
+        <v>14.43</v>
       </c>
       <c r="D3" s="2">
-        <v>15.9</v>
+        <v>21.35</v>
       </c>
       <c r="E3" s="2">
-        <v>13.66</v>
+        <v>17.79</v>
       </c>
       <c r="F3" s="2">
-        <v>10.35</v>
+        <v>16.93</v>
       </c>
       <c r="G3" s="2">
-        <v>9.69</v>
+        <v>12.5</v>
       </c>
       <c r="H3" s="2">
-        <v>8.18</v>
+        <v>13.39</v>
       </c>
       <c r="I3" s="2">
-        <v>11.23</v>
+        <v>13.52</v>
       </c>
       <c r="J3" s="2">
-        <v>9.93</v>
+        <v>14.3</v>
       </c>
       <c r="K3" s="2">
-        <v>8.9499999999999993</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="L3" s="2">
-        <v>6.82</v>
+        <v>8.23</v>
       </c>
       <c r="M3" s="2">
-        <v>-8.2799999999999994</v>
+        <v>-5.93</v>
       </c>
       <c r="N3" s="2">
         <v>14.88</v>
@@ -898,37 +1097,37 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>17.21</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="D4" s="2">
-        <v>20.76</v>
+        <v>20.67</v>
       </c>
       <c r="E4" s="2">
-        <v>22.36</v>
+        <v>22.41</v>
       </c>
       <c r="F4" s="2">
-        <v>24.2</v>
+        <v>24.35</v>
       </c>
       <c r="G4" s="2">
-        <v>25.94</v>
+        <v>25.89</v>
       </c>
       <c r="H4" s="2">
-        <v>28.44</v>
+        <v>28.22</v>
       </c>
       <c r="I4" s="2">
-        <v>29.14</v>
+        <v>29.48</v>
       </c>
       <c r="J4" s="2">
-        <v>30.45</v>
+        <v>30.27</v>
       </c>
       <c r="K4" s="2">
-        <v>34.46</v>
+        <v>34.4</v>
       </c>
       <c r="L4" s="2">
-        <v>39.74</v>
+        <v>39.78</v>
       </c>
       <c r="M4" s="2">
-        <v>32.15</v>
+        <v>32.18</v>
       </c>
       <c r="N4" s="2">
         <v>26.26</v>
@@ -939,28 +1138,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.02</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.01</v>
-      </c>
       <c r="F5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" s="2">
         <v>0.01</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="2">
         <v>0.01</v>
       </c>
       <c r="J5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K5" s="2">
         <v>0.01</v>
@@ -978,34 +1177,34 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.53</v>
+        <v>-0.01</v>
       </c>
       <c r="D6" s="2">
-        <v>0.4</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.37</v>
+        <v>0.95</v>
       </c>
       <c r="F6" s="2">
-        <v>-1.54</v>
+        <v>0.68</v>
       </c>
       <c r="G6" s="2">
-        <v>-1.65</v>
+        <v>-0.74</v>
       </c>
       <c r="H6" s="2">
-        <v>-1.89</v>
+        <v>-0.41</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.91</v>
+        <v>-0.32</v>
       </c>
       <c r="J6" s="2">
-        <v>-1.0900000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="K6" s="2">
-        <v>-1.04</v>
+        <v>-0.84</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.95</v>
+        <v>-0.75</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1015,37 +1214,37 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.94</v>
+        <v>2.96</v>
       </c>
       <c r="D7" s="2">
-        <v>4.29</v>
+        <v>9.19</v>
       </c>
       <c r="E7" s="2">
-        <v>2.27</v>
+        <v>5.99</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.71</v>
+        <v>5.22</v>
       </c>
       <c r="G7" s="2">
-        <v>-1.3</v>
+        <v>1.23</v>
       </c>
       <c r="H7" s="2">
-        <v>-2.66</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>0.09</v>
+        <v>2.15</v>
       </c>
       <c r="J7" s="2">
-        <v>-1.0900000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="K7" s="2">
-        <v>-1.97</v>
+        <v>-0.99</v>
       </c>
       <c r="L7" s="2">
-        <v>-3.88</v>
+        <v>-2.62</v>
       </c>
       <c r="M7" s="2">
-        <v>-17.48</v>
+        <v>-15.36</v>
       </c>
       <c r="N7" s="2">
         <v>3.37</v>
@@ -1062,22 +1261,22 @@
         <v>0.68</v>
       </c>
       <c r="E8" s="2">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F8" s="2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="G8" s="2">
         <v>0.88</v>
       </c>
       <c r="H8" s="2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I8" s="2">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="J8" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K8" s="2">
         <v>1.08</v>
@@ -1095,37 +1294,37 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>-2.95</v>
+        <v>0.88</v>
       </c>
       <c r="D9" s="2">
-        <v>1.77</v>
+        <v>6.55</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.22</v>
+        <v>3.39</v>
       </c>
       <c r="F9" s="2">
-        <v>-3.28</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="2">
-        <v>-3.81</v>
+        <v>-1.34</v>
       </c>
       <c r="H9" s="2">
-        <v>-4.99</v>
+        <v>-0.45</v>
       </c>
       <c r="I9" s="2">
-        <v>-2.13</v>
+        <v>-0.13</v>
       </c>
       <c r="J9" s="2">
-        <v>-3.01</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="2">
-        <v>-3.3</v>
+        <v>-2.35</v>
       </c>
       <c r="L9" s="2">
-        <v>-3.59</v>
+        <v>-2.31</v>
       </c>
       <c r="M9" s="2">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -1134,34 +1333,34 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.24</v>
+        <v>0.36</v>
       </c>
       <c r="D10" s="2">
-        <v>0.71</v>
+        <v>2.61</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.08</v>
+        <v>1.28</v>
       </c>
       <c r="F10" s="2">
-        <v>-1.32</v>
+        <v>0.97</v>
       </c>
       <c r="G10" s="2">
-        <v>-1.43</v>
+        <v>-0.49</v>
       </c>
       <c r="H10" s="2">
-        <v>-1.67</v>
+        <v>-0.15</v>
       </c>
       <c r="I10" s="2">
-        <v>-0.64</v>
+        <v>-0.04</v>
       </c>
       <c r="J10" s="2">
-        <v>-0.81</v>
+        <v>0.22</v>
       </c>
       <c r="K10" s="2">
-        <v>-0.75</v>
+        <v>-0.53</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.59</v>
+        <v>-0.38</v>
       </c>
       <c r="M10" s="2">
         <v>0.02</v>
@@ -1218,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1232,13 +1431,13 @@
         <v>0.78</v>
       </c>
       <c r="D14" s="2">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="E14" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G14" s="2">
         <v>1.1499999999999999</v>
@@ -1247,7 +1446,7 @@
         <v>1.24</v>
       </c>
       <c r="I14" s="2">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="J14" s="2">
         <v>1.35</v>
@@ -1256,10 +1455,10 @@
         <v>1.56</v>
       </c>
       <c r="L14" s="2">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M14" s="2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="N14" s="2">
         <v>1.1599999999999999</v>
@@ -1273,22 +1472,22 @@
         <v>-0.77</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.99</v>
+        <v>-0.98</v>
       </c>
       <c r="F15" s="2">
-        <v>-1.07</v>
+        <v>-1.06</v>
       </c>
       <c r="G15" s="2">
         <v>-1.1399999999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>-1.26</v>
+        <v>-1.25</v>
       </c>
       <c r="I15" s="2">
-        <v>-1.33</v>
+        <v>-1.32</v>
       </c>
       <c r="J15" s="2">
         <v>-1.37</v>
@@ -1297,10 +1496,10 @@
         <v>-1.56</v>
       </c>
       <c r="L15" s="2">
-        <v>-1.8</v>
+        <v>-1.79</v>
       </c>
       <c r="M15" s="2">
-        <v>-1.49</v>
+        <v>-1.47</v>
       </c>
       <c r="N15" s="2">
         <v>-1.17</v>
@@ -1311,28 +1510,28 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>-8.86</v>
+        <v>-8.92</v>
       </c>
       <c r="D16" s="2">
-        <v>-12.97</v>
+        <v>-13.44</v>
       </c>
       <c r="E16" s="2">
-        <v>-15.2</v>
+        <v>-15.3</v>
       </c>
       <c r="F16" s="2">
-        <v>-14.97</v>
+        <v>-15.09</v>
       </c>
       <c r="G16" s="2">
-        <v>-17.28</v>
+        <v>-17.12</v>
       </c>
       <c r="H16" s="2">
         <v>-17.739999999999998</v>
       </c>
       <c r="I16" s="2">
-        <v>-16.54</v>
+        <v>-18.649999999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>-20.399999999999999</v>
+        <v>-18.68</v>
       </c>
       <c r="K16" s="2">
         <v>-19.38</v>
@@ -1341,7 +1540,7 @@
         <v>-23.3</v>
       </c>
       <c r="M16" s="2">
-        <v>-16.09</v>
+        <v>-15.8</v>
       </c>
       <c r="N16" s="2">
         <v>-14.89</v>
@@ -1380,16 +1579,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <v>13.28</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="D20" s="2">
-        <v>10.54</v>
+        <v>14.84</v>
       </c>
       <c r="E20" s="2">
-        <v>9.58</v>
+        <v>11.75</v>
       </c>
       <c r="F20" s="2">
-        <v>-2.2799999999999998</v>
+        <v>-0.35</v>
       </c>
       <c r="G20" s="2">
         <v>14.88</v>
@@ -1400,16 +1599,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>18.72</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>25.09</v>
+        <v>25.21</v>
       </c>
       <c r="E21" s="2">
-        <v>32.43</v>
+        <v>32.42</v>
       </c>
       <c r="F21" s="2">
-        <v>20.38</v>
+        <v>20.43</v>
       </c>
       <c r="G21" s="2">
         <v>26.26</v>
@@ -1420,10 +1619,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D22" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -1438,13 +1637,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.61</v>
+        <v>1.48</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.95</v>
+        <v>-0.01</v>
       </c>
       <c r="E23" s="2">
-        <v>-1.1399999999999999</v>
+        <v>-0.64</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1454,16 +1653,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>1.93</v>
+        <v>6.02</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.54</v>
+        <v>3.33</v>
       </c>
       <c r="E24" s="2">
-        <v>-1.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F24" s="2">
-        <v>-12.08</v>
+        <v>-10.34</v>
       </c>
       <c r="G24" s="2">
         <v>3.37</v>
@@ -1477,7 +1676,7 @@
         <v>0.64</v>
       </c>
       <c r="D25" s="2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E25" s="2">
         <v>1.07</v>
@@ -1492,16 +1691,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.69</v>
+        <v>3.3</v>
       </c>
       <c r="D26" s="2">
-        <v>-3.41</v>
+        <v>0.35</v>
       </c>
       <c r="E26" s="2">
-        <v>-3.27</v>
+        <v>-1.36</v>
       </c>
       <c r="F26" s="2">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1510,13 +1709,13 @@
         <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.38</v>
+        <v>1.77</v>
       </c>
       <c r="D27" s="2">
-        <v>-1.79</v>
+        <v>0.18</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.87</v>
+        <v>-0.36</v>
       </c>
       <c r="F27" s="2">
         <v>0.01</v>
@@ -1539,7 +1738,7 @@
   <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,7 +1748,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1580,16 +1779,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>23.66</v>
+        <v>27.91</v>
       </c>
       <c r="D3" s="2">
-        <v>14.49</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="F3" s="2">
-        <v>2.5499999999999998</v>
+        <v>5.24</v>
       </c>
       <c r="G3" s="2">
         <v>24.96</v>
@@ -1600,16 +1799,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>20.96</v>
+        <v>20.91</v>
       </c>
       <c r="D4" s="2">
-        <v>28.13</v>
+        <v>28.25</v>
       </c>
       <c r="E4" s="2">
-        <v>32.549999999999997</v>
+        <v>32.51</v>
       </c>
       <c r="F4" s="2">
-        <v>18.96</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="G4" s="2">
         <v>30.19</v>
@@ -1620,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="2">
         <v>0.01</v>
@@ -1638,13 +1837,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>0.05</v>
+        <v>0.98</v>
       </c>
       <c r="D6" s="2">
-        <v>-2.09</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>-1.19</v>
+        <v>-1.07</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1654,16 +1853,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>6.41</v>
+        <v>10.07</v>
       </c>
       <c r="D7" s="2">
-        <v>-1.49</v>
+        <v>2.39</v>
       </c>
       <c r="E7" s="2">
-        <v>-1.22</v>
+        <v>-0.44</v>
       </c>
       <c r="F7" s="2">
-        <v>-11.77</v>
+        <v>-9.4499999999999993</v>
       </c>
       <c r="G7" s="2">
         <v>7.53</v>
@@ -1677,7 +1876,7 @@
         <v>0.63</v>
       </c>
       <c r="D8" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E8" s="2">
         <v>0.92</v>
@@ -1692,16 +1891,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="D9" s="2">
-        <v>-7.56</v>
+        <v>-3.95</v>
       </c>
       <c r="E9" s="2">
-        <v>-6.54</v>
+        <v>-5.79</v>
       </c>
       <c r="F9" s="2">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1710,13 +1909,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>0.26</v>
+        <v>1.21</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.96</v>
+        <v>-1.01</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.97</v>
+        <v>-0.85</v>
       </c>
       <c r="F10" s="2">
         <v>0.01</v>
@@ -1725,7 +1924,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1756,16 +1955,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>45.61</v>
+        <v>54.59</v>
       </c>
       <c r="D14" s="2">
-        <v>82.78</v>
+        <v>90.06</v>
       </c>
       <c r="E14" s="2">
-        <v>165.01</v>
+        <v>167.48</v>
       </c>
       <c r="F14" s="2">
-        <v>-48.34</v>
+        <v>-45.64</v>
       </c>
       <c r="G14" s="2">
         <v>75.16</v>
@@ -1776,16 +1975,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>16.760000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>27.75</v>
+        <v>27.78</v>
       </c>
       <c r="E15" s="2">
-        <v>31.8</v>
+        <v>31.81</v>
       </c>
       <c r="F15" s="2">
-        <v>21.38</v>
+        <v>21.37</v>
       </c>
       <c r="G15" s="2">
         <v>30.53</v>
@@ -1796,13 +1995,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D16" s="2">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E16" s="2">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1814,13 +2013,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="2">
-        <v>1.07</v>
+        <v>1.58</v>
       </c>
       <c r="E17" s="2">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1830,16 +2029,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>32.590000000000003</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>66.45</v>
+        <v>73.09</v>
       </c>
       <c r="E18" s="2">
-        <v>141.37</v>
+        <v>143.62</v>
       </c>
       <c r="F18" s="2">
-        <v>-52.98</v>
+        <v>-50.52</v>
       </c>
       <c r="G18" s="2">
         <v>59.51</v>
@@ -1850,7 +2049,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="D19" s="2">
         <v>0.88</v>
@@ -1859,7 +2058,7 @@
         <v>0.9</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1868,16 +2067,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>5.49</v>
+        <v>11.82</v>
       </c>
       <c r="D20" s="2">
-        <v>10.35</v>
+        <v>14.7</v>
       </c>
       <c r="E20" s="2">
-        <v>60.2</v>
+        <v>61.52</v>
       </c>
       <c r="F20" s="2">
-        <v>-1.97</v>
+        <v>-1.74</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1886,13 +2085,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>0.62</v>
+        <v>1.27</v>
       </c>
       <c r="D21" s="2">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
       <c r="E21" s="2">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="F21" s="2">
         <v>0.04</v>
@@ -1901,7 +2100,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1932,16 +2131,16 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>6.17</v>
+        <v>10.56</v>
       </c>
       <c r="D25" s="2">
-        <v>4.17</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.5</v>
+        <v>2.15</v>
       </c>
       <c r="F25" s="2">
-        <v>0.56000000000000005</v>
+        <v>1.95</v>
       </c>
       <c r="G25" s="2">
         <v>6.35</v>
@@ -1952,16 +2151,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>17.649999999999999</v>
+        <v>17.46</v>
       </c>
       <c r="D26" s="2">
-        <v>23.16</v>
+        <v>23.29</v>
       </c>
       <c r="E26" s="2">
         <v>32.39</v>
       </c>
       <c r="F26" s="2">
-        <v>20.94</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2">
         <v>23.61</v>
@@ -1972,13 +2171,13 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="2">
         <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-0.01</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1990,13 +2189,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.57999999999999996</v>
+        <v>1.27</v>
       </c>
       <c r="D28" s="2">
-        <v>-0.96</v>
+        <v>0.73</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.94</v>
+        <v>-0.38</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2006,16 +2205,16 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>-2.4</v>
+        <v>1.63</v>
       </c>
       <c r="D29" s="2">
-        <v>-4.24</v>
+        <v>-0.54</v>
       </c>
       <c r="E29" s="2">
-        <v>-8.5399999999999991</v>
+        <v>-6.1</v>
       </c>
       <c r="F29" s="2">
-        <v>-7.56</v>
+        <v>-6.28</v>
       </c>
       <c r="G29" s="2">
         <v>-2.2400000000000002</v>
@@ -2026,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="D30" s="2">
         <v>0.93</v>
@@ -2035,7 +2234,7 @@
         <v>1.21</v>
       </c>
       <c r="F30" s="2">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="G30" s="2"/>
     </row>
@@ -2044,16 +2243,16 @@
         <v>18</v>
       </c>
       <c r="C31" s="2">
-        <v>-1.22</v>
+        <v>2.83</v>
       </c>
       <c r="D31" s="2">
-        <v>-2.1</v>
+        <v>1.71</v>
       </c>
       <c r="E31" s="2">
-        <v>-4.1900000000000004</v>
+        <v>-1.64</v>
       </c>
       <c r="F31" s="2">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -2062,13 +2261,13 @@
         <v>19</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.57999999999999996</v>
+        <v>1.32</v>
       </c>
       <c r="D32" s="2">
-        <v>-0.96</v>
+        <v>0.76</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.95</v>
+        <v>-0.37</v>
       </c>
       <c r="F32" s="2">
         <v>0.01</v>
@@ -2090,7 +2289,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2112,74 +2311,74 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.69</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="2">
-        <v>-3.38</v>
+        <v>0.38</v>
       </c>
       <c r="E3" s="2">
-        <v>-3.25</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>-0.44</v>
+        <v>3.54</v>
       </c>
       <c r="D4" s="2">
-        <v>-3.44</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="2">
-        <v>-4.3899999999999997</v>
+        <v>-2.4900000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>-1.08</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="2">
-        <v>-3.38</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.3</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.1399999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="D6" s="2">
-        <v>-3.37</v>
+        <v>0.39</v>
       </c>
       <c r="E6" s="2">
-        <v>-1.1599999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2188,69 +2387,69 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.4</v>
+        <v>1.88</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.89</v>
+        <v>0.21</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.9</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D11" s="2">
-        <v>-1.99</v>
+        <v>0.19</v>
       </c>
       <c r="E11" s="2">
-        <v>-1.45</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.63</v>
+        <v>1.67</v>
       </c>
       <c r="D12" s="2">
-        <v>-1.96</v>
+        <v>0.21</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.44</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.66</v>
+        <v>1.64</v>
       </c>
       <c r="D13" s="2">
-        <v>-1.95</v>
+        <v>0.22</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.39</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2466,7 @@
   <dimension ref="B1:N43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="B35" sqref="B35:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2325,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>11</v>
@@ -2336,37 +2535,37 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>2.71</v>
+        <v>4.76</v>
       </c>
       <c r="D3" s="2">
-        <v>11.98</v>
+        <v>14.7</v>
       </c>
       <c r="E3" s="2">
-        <v>13.16</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>14.18</v>
+        <v>18.59</v>
       </c>
       <c r="G3" s="2">
-        <v>13.35</v>
+        <v>17.62</v>
       </c>
       <c r="H3" s="2">
-        <v>13.16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I3" s="2">
-        <v>13.75</v>
+        <v>16.93</v>
       </c>
       <c r="J3" s="2">
-        <v>7.92</v>
+        <v>12.58</v>
       </c>
       <c r="K3" s="2">
-        <v>5.93</v>
+        <v>10.31</v>
       </c>
       <c r="L3" s="2">
-        <v>11.64</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="M3" s="2">
-        <v>-10.14</v>
+        <v>-11.91</v>
       </c>
       <c r="N3" s="2">
         <v>14.88</v>
@@ -2377,37 +2576,37 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>32.42</v>
+        <v>32.39</v>
       </c>
       <c r="D4" s="2">
         <v>28.91</v>
       </c>
       <c r="E4" s="2">
-        <v>28.53</v>
+        <v>28.54</v>
       </c>
       <c r="F4" s="2">
-        <v>26.24</v>
+        <v>26.23</v>
       </c>
       <c r="G4" s="2">
-        <v>25.58</v>
+        <v>25.53</v>
       </c>
       <c r="H4" s="2">
-        <v>26.4</v>
+        <v>26.39</v>
       </c>
       <c r="I4" s="2">
-        <v>25.78</v>
+        <v>25.75</v>
       </c>
       <c r="J4" s="2">
-        <v>25.11</v>
+        <v>25.07</v>
       </c>
       <c r="K4" s="2">
-        <v>26.61</v>
+        <v>26.57</v>
       </c>
       <c r="L4" s="2">
-        <v>29.14</v>
+        <v>29.17</v>
       </c>
       <c r="M4" s="2">
-        <v>26.05</v>
+        <v>26.04</v>
       </c>
       <c r="N4" s="2">
         <v>26.26</v>
@@ -2418,34 +2617,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.01</v>
       </c>
-      <c r="E5" s="2">
+      <c r="K5" s="2">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
       <c r="L5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
@@ -2457,34 +2656,34 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.86</v>
+        <v>-1.53</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.56999999999999995</v>
+        <v>-0.02</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.36</v>
+        <v>0.36</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.16</v>
+        <v>0.88</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.39</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="2">
-        <v>-0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="J6" s="2">
-        <v>-1.92</v>
+        <v>-0.63</v>
       </c>
       <c r="K6" s="2">
-        <v>-2.8</v>
+        <v>-1.42</v>
       </c>
       <c r="L6" s="2">
-        <v>-1.5</v>
+        <v>0.62</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2494,37 +2693,37 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>-7.59</v>
+        <v>-5.74</v>
       </c>
       <c r="D7" s="2">
-        <v>0.76</v>
+        <v>3.2</v>
       </c>
       <c r="E7" s="2">
-        <v>1.82</v>
+        <v>4.82</v>
       </c>
       <c r="F7" s="2">
-        <v>2.74</v>
+        <v>6.71</v>
       </c>
       <c r="G7" s="2">
-        <v>1.99</v>
+        <v>5.83</v>
       </c>
       <c r="H7" s="2">
-        <v>1.82</v>
+        <v>4.92</v>
       </c>
       <c r="I7" s="2">
-        <v>2.35</v>
+        <v>5.21</v>
       </c>
       <c r="J7" s="2">
-        <v>-2.89</v>
+        <v>1.3</v>
       </c>
       <c r="K7" s="2">
-        <v>-4.6900000000000004</v>
+        <v>-0.74</v>
       </c>
       <c r="L7" s="2">
-        <v>0.46</v>
+        <v>4.51</v>
       </c>
       <c r="M7" s="2">
-        <v>-19.16</v>
+        <v>-20.75</v>
       </c>
       <c r="N7" s="2">
         <v>3.37</v>
@@ -2541,7 +2740,7 @@
         <v>0.87</v>
       </c>
       <c r="E8" s="2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F8" s="2">
         <v>0.82</v>
@@ -2565,7 +2764,7 @@
         <v>1.07</v>
       </c>
       <c r="M8" s="2">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -2574,37 +2773,37 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>-8.0500000000000007</v>
+        <v>-6.21</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.9</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.09</v>
+        <v>2.84</v>
       </c>
       <c r="F9" s="2">
-        <v>0.61</v>
+        <v>4.49</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.25</v>
+        <v>3.49</v>
       </c>
       <c r="H9" s="2">
-        <v>-0.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>0.09</v>
+        <v>2.89</v>
       </c>
       <c r="J9" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-1.02</v>
       </c>
       <c r="K9" s="2">
-        <v>-7.09</v>
+        <v>-3.26</v>
       </c>
       <c r="L9" s="2">
-        <v>-2.4900000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="M9" s="2">
-        <v>-0.28000000000000003</v>
+        <v>-0.37</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -2613,34 +2812,34 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.55</v>
+        <v>-1.18</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.22</v>
+        <v>0.36</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.02</v>
+        <v>0.73</v>
       </c>
       <c r="F10" s="2">
-        <v>0.18</v>
+        <v>1.27</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.08</v>
+        <v>1.06</v>
       </c>
       <c r="H10" s="2">
-        <v>-0.16</v>
+        <v>0.78</v>
       </c>
       <c r="I10" s="2">
-        <v>0.03</v>
+        <v>0.87</v>
       </c>
       <c r="J10" s="2">
-        <v>-1.67</v>
+        <v>-0.33</v>
       </c>
       <c r="K10" s="2">
-        <v>-2.61</v>
+        <v>-1.19</v>
       </c>
       <c r="L10" s="2">
-        <v>-1.36</v>
+        <v>0.78</v>
       </c>
       <c r="M10" s="2">
         <v>0.01</v>
@@ -2649,7 +2848,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2697,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>11</v>
@@ -2708,37 +2907,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>9.93</v>
+        <v>12.89</v>
       </c>
       <c r="D14" s="2">
-        <v>13.33</v>
+        <v>16.86</v>
       </c>
       <c r="E14" s="2">
-        <v>7.48</v>
+        <v>12.04</v>
       </c>
       <c r="F14" s="2">
-        <v>9.52</v>
+        <v>13.69</v>
       </c>
       <c r="G14" s="2">
-        <v>14.36</v>
+        <v>19.16</v>
       </c>
       <c r="H14" s="2">
-        <v>11.36</v>
+        <v>15.78</v>
       </c>
       <c r="I14" s="2">
-        <v>5.33</v>
+        <v>8.76</v>
       </c>
       <c r="J14" s="2">
-        <v>5.13</v>
+        <v>8.16</v>
       </c>
       <c r="K14" s="2">
-        <v>14</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>13.58</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="M14" s="2">
-        <v>-4</v>
+        <v>-4.22</v>
       </c>
       <c r="N14" s="2">
         <v>14.88</v>
@@ -2749,37 +2948,37 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>33.18</v>
+        <v>33.17</v>
       </c>
       <c r="D15" s="2">
-        <v>30.79</v>
+        <v>30.76</v>
       </c>
       <c r="E15" s="2">
         <v>27.76</v>
       </c>
       <c r="F15" s="2">
-        <v>28.14</v>
+        <v>28.09</v>
       </c>
       <c r="G15" s="2">
-        <v>27.27</v>
+        <v>27.24</v>
       </c>
       <c r="H15" s="2">
-        <v>26.66</v>
+        <v>26.64</v>
       </c>
       <c r="I15" s="2">
-        <v>26.4</v>
+        <v>26.41</v>
       </c>
       <c r="J15" s="2">
-        <v>25.64</v>
+        <v>25.63</v>
       </c>
       <c r="K15" s="2">
-        <v>24.21</v>
+        <v>24.2</v>
       </c>
       <c r="L15" s="2">
-        <v>24.93</v>
+        <v>24.89</v>
       </c>
       <c r="M15" s="2">
-        <v>25.33</v>
+        <v>25.27</v>
       </c>
       <c r="N15" s="2">
         <v>26.26</v>
@@ -2793,10 +2992,10 @@
         <v>0.01</v>
       </c>
       <c r="D16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.01</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0.01</v>
@@ -2805,19 +3004,19 @@
         <v>0.02</v>
       </c>
       <c r="H16" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L16" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
@@ -2829,34 +3028,34 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.76</v>
+        <v>-0.27</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="E17" s="2">
-        <v>-1.86</v>
+        <v>-0.7</v>
       </c>
       <c r="F17" s="2">
-        <v>-1.38</v>
+        <v>-0.3</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.13</v>
+        <v>1.08</v>
       </c>
       <c r="H17" s="2">
-        <v>-0.93</v>
+        <v>0.24</v>
       </c>
       <c r="I17" s="2">
-        <v>-2.69</v>
+        <v>-1.7</v>
       </c>
       <c r="J17" s="2">
-        <v>-2.82</v>
+        <v>-1.92</v>
       </c>
       <c r="K17" s="2">
-        <v>-0.24</v>
+        <v>0.67</v>
       </c>
       <c r="L17" s="2">
-        <v>-0.32</v>
+        <v>0.52</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2866,37 +3065,37 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>-1.0900000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="D18" s="2">
-        <v>1.97</v>
+        <v>5.15</v>
       </c>
       <c r="E18" s="2">
-        <v>-3.29</v>
+        <v>0.81</v>
       </c>
       <c r="F18" s="2">
-        <v>-1.46</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G18" s="2">
-        <v>2.9</v>
+        <v>7.22</v>
       </c>
       <c r="H18" s="2">
-        <v>0.2</v>
+        <v>4.18</v>
       </c>
       <c r="I18" s="2">
-        <v>-5.23</v>
+        <v>-2.14</v>
       </c>
       <c r="J18" s="2">
-        <v>-5.4</v>
+        <v>-2.68</v>
       </c>
       <c r="K18" s="2">
-        <v>2.58</v>
+        <v>5.55</v>
       </c>
       <c r="L18" s="2">
-        <v>2.2000000000000002</v>
+        <v>5.22</v>
       </c>
       <c r="M18" s="2">
-        <v>-13.63</v>
+        <v>-13.83</v>
       </c>
       <c r="N18" s="2">
         <v>3.37</v>
@@ -2913,7 +3112,7 @@
         <v>0.96</v>
       </c>
       <c r="E19" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="2">
         <v>0.92</v>
@@ -2946,37 +3145,37 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>-2</v>
+        <v>0.63</v>
       </c>
       <c r="D20" s="2">
-        <v>0.21</v>
+        <v>3.32</v>
       </c>
       <c r="E20" s="2">
-        <v>-5.4</v>
+        <v>-1.4</v>
       </c>
       <c r="F20" s="2">
-        <v>-3.67</v>
+        <v>-0.01</v>
       </c>
       <c r="G20" s="2">
-        <v>0.61</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H20" s="2">
-        <v>-2.0699999999999998</v>
+        <v>1.82</v>
       </c>
       <c r="I20" s="2">
-        <v>-7.43</v>
+        <v>-4.42</v>
       </c>
       <c r="J20" s="2">
-        <v>-7.63</v>
+        <v>-4.9800000000000004</v>
       </c>
       <c r="K20" s="2">
-        <v>0.22</v>
+        <v>3.12</v>
       </c>
       <c r="L20" s="2">
-        <v>0.03</v>
+        <v>2.98</v>
       </c>
       <c r="M20" s="2">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="N20" s="2"/>
     </row>
@@ -2985,34 +3184,34 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.4</v>
+        <v>0.12</v>
       </c>
       <c r="D21" s="2">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="E21" s="2">
-        <v>-1.62</v>
+        <v>-0.41</v>
       </c>
       <c r="F21" s="2">
-        <v>-1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.18</v>
+        <v>1.44</v>
       </c>
       <c r="H21" s="2">
-        <v>-0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I21" s="2">
-        <v>-2.4900000000000002</v>
+        <v>-1.46</v>
       </c>
       <c r="J21" s="2">
-        <v>-2.62</v>
+        <v>-1.69</v>
       </c>
       <c r="K21" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1.02</v>
       </c>
       <c r="L21" s="2">
-        <v>0.01</v>
+        <v>0.89</v>
       </c>
       <c r="M21" s="2">
         <v>0.01</v>
@@ -3021,7 +3220,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3069,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>11</v>
@@ -3080,37 +3279,37 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>20.010000000000002</v>
+        <v>24.86</v>
       </c>
       <c r="D25" s="2">
-        <v>16.63</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>16.84</v>
+        <v>20.65</v>
       </c>
       <c r="F25" s="2">
-        <v>13.25</v>
+        <v>18.47</v>
       </c>
       <c r="G25" s="2">
-        <v>14.4</v>
+        <v>19.05</v>
       </c>
       <c r="H25" s="2">
-        <v>10.11</v>
+        <v>15.29</v>
       </c>
       <c r="I25" s="2">
-        <v>10.26</v>
+        <v>11.48</v>
       </c>
       <c r="J25" s="2">
-        <v>5.0999999999999996</v>
+        <v>10.27</v>
       </c>
       <c r="K25" s="2">
-        <v>5.25</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="L25" s="2">
-        <v>-2.99</v>
+        <v>-2.34</v>
       </c>
       <c r="M25" s="2">
-        <v>15.12</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="N25" s="2">
         <v>14.88</v>
@@ -3121,37 +3320,37 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>27.24</v>
+        <v>26.84</v>
       </c>
       <c r="D26" s="2">
-        <v>24.78</v>
+        <v>25.32</v>
       </c>
       <c r="E26" s="2">
-        <v>25.46</v>
+        <v>24.75</v>
       </c>
       <c r="F26" s="2">
-        <v>25.38</v>
+        <v>25.44</v>
       </c>
       <c r="G26" s="2">
-        <v>25.65</v>
+        <v>25.07</v>
       </c>
       <c r="H26" s="2">
-        <v>26.32</v>
+        <v>26.73</v>
       </c>
       <c r="I26" s="2">
-        <v>26.89</v>
+        <v>27.08</v>
       </c>
       <c r="J26" s="2">
-        <v>28.11</v>
+        <v>28.44</v>
       </c>
       <c r="K26" s="2">
-        <v>29.78</v>
+        <v>29.71</v>
       </c>
       <c r="L26" s="2">
-        <v>35.58</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="M26" s="2">
-        <v>30.26</v>
+        <v>30.31</v>
       </c>
       <c r="N26" s="2">
         <v>26.26</v>
@@ -3162,31 +3361,31 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D27" s="2">
         <v>0.02</v>
       </c>
       <c r="E27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="2">
         <v>0.02</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.01</v>
-      </c>
       <c r="G27" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H27" s="2">
         <v>0.02</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.01</v>
       </c>
       <c r="I27" s="2">
         <v>0.01</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L27" s="2">
         <v>-0.01</v>
@@ -3201,34 +3400,34 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.46</v>
+        <v>1.06</v>
       </c>
       <c r="E28" s="2">
-        <v>0.56000000000000005</v>
+        <v>1.67</v>
       </c>
       <c r="F28" s="2">
-        <v>-0.49</v>
+        <v>1.05</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.14000000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="H28" s="2">
-        <v>-1.42</v>
+        <v>0.12</v>
       </c>
       <c r="I28" s="2">
-        <v>-1.29</v>
+        <v>-0.94</v>
       </c>
       <c r="J28" s="2">
-        <v>-2.56</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>-2.0699999999999998</v>
+        <v>-1.18</v>
       </c>
       <c r="L28" s="2">
-        <v>-2.61</v>
+        <v>-2.5</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3238,37 +3437,37 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>7.99</v>
+        <v>12.35</v>
       </c>
       <c r="D29" s="2">
-        <v>4.9400000000000004</v>
+        <v>7.03</v>
       </c>
       <c r="E29" s="2">
-        <v>5.13</v>
+        <v>8.56</v>
       </c>
       <c r="F29" s="2">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="G29" s="2">
-        <v>2.94</v>
+        <v>7.12</v>
       </c>
       <c r="H29" s="2">
-        <v>-0.92</v>
+        <v>3.73</v>
       </c>
       <c r="I29" s="2">
-        <v>-0.79</v>
+        <v>0.31</v>
       </c>
       <c r="J29" s="2">
-        <v>-5.43</v>
+        <v>-0.78</v>
       </c>
       <c r="K29" s="2">
-        <v>-5.3</v>
+        <v>-1.67</v>
       </c>
       <c r="L29" s="2">
-        <v>-12.72</v>
+        <v>-12.14</v>
       </c>
       <c r="M29" s="2">
-        <v>3.58</v>
+        <v>6.86</v>
       </c>
       <c r="N29" s="2">
         <v>3.37</v>
@@ -3279,37 +3478,37 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D30" s="2">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="E30" s="2">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F30" s="2">
         <v>0.85</v>
       </c>
       <c r="G30" s="2">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="H30" s="2">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="I30" s="2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J30" s="2">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K30" s="2">
         <v>0.92</v>
       </c>
       <c r="L30" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M30" s="2">
-        <v>-0.16</v>
+        <v>-0.18</v>
       </c>
       <c r="N30" s="2"/>
     </row>
@@ -3318,37 +3517,37 @@
         <v>18</v>
       </c>
       <c r="C31" s="2">
-        <v>6.18</v>
+        <v>10.45</v>
       </c>
       <c r="D31" s="2">
-        <v>2.6</v>
+        <v>4.62</v>
       </c>
       <c r="E31" s="2">
-        <v>2.62</v>
+        <v>5.93</v>
       </c>
       <c r="F31" s="2">
-        <v>-0.62</v>
+        <v>3.98</v>
       </c>
       <c r="G31" s="2">
-        <v>0.39</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H31" s="2">
-        <v>-3.37</v>
+        <v>1.17</v>
       </c>
       <c r="I31" s="2">
-        <v>-3.15</v>
+        <v>-2.08</v>
       </c>
       <c r="J31" s="2">
-        <v>-7.54</v>
+        <v>-2.97</v>
       </c>
       <c r="K31" s="2">
-        <v>-7</v>
+        <v>-3.45</v>
       </c>
       <c r="L31" s="2">
-        <v>-12.85</v>
+        <v>-12.26</v>
       </c>
       <c r="M31" s="2">
-        <v>0.94</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -3357,34 +3556,34 @@
         <v>19</v>
       </c>
       <c r="C32" s="2">
-        <v>1.5</v>
+        <v>2.52</v>
       </c>
       <c r="D32" s="2">
-        <v>0.82</v>
+        <v>1.43</v>
       </c>
       <c r="E32" s="2">
-        <v>0.88</v>
+        <v>2.02</v>
       </c>
       <c r="F32" s="2">
-        <v>-0.22</v>
+        <v>1.37</v>
       </c>
       <c r="G32" s="2">
-        <v>0.14000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="H32" s="2">
-        <v>-1.18</v>
+        <v>0.4</v>
       </c>
       <c r="I32" s="2">
-        <v>-1.04</v>
+        <v>-0.68</v>
       </c>
       <c r="J32" s="2">
-        <v>-2.35</v>
+        <v>-0.89</v>
       </c>
       <c r="K32" s="2">
-        <v>-1.82</v>
+        <v>-0.88</v>
       </c>
       <c r="L32" s="2">
-        <v>-2.37</v>
+        <v>-2.25</v>
       </c>
       <c r="M32" s="2">
         <v>0.02</v>
@@ -3393,7 +3592,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3441,7 +3640,7 @@
         <v>9</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>11</v>
@@ -3452,37 +3651,37 @@
         <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>17.59</v>
+        <v>21.35</v>
       </c>
       <c r="D36" s="2">
-        <v>13.31</v>
+        <v>17.53</v>
       </c>
       <c r="E36" s="2">
-        <v>12.68</v>
+        <v>17.07</v>
       </c>
       <c r="F36" s="2">
-        <v>7.48</v>
+        <v>11.27</v>
       </c>
       <c r="G36" s="2">
-        <v>10.23</v>
+        <v>15.33</v>
       </c>
       <c r="H36" s="2">
-        <v>13.07</v>
+        <v>17.43</v>
       </c>
       <c r="I36" s="2">
-        <v>13.31</v>
+        <v>16.79</v>
       </c>
       <c r="J36" s="2">
-        <v>5.61</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K36" s="2">
-        <v>9.74</v>
+        <v>12.29</v>
       </c>
       <c r="L36" s="2">
-        <v>4.99</v>
+        <v>6.71</v>
       </c>
       <c r="M36" s="2">
-        <v>5.07</v>
+        <v>6.68</v>
       </c>
       <c r="N36" s="2">
         <v>14.88</v>
@@ -3496,34 +3695,34 @@
         <v>25.38</v>
       </c>
       <c r="D37" s="2">
-        <v>25.04</v>
+        <v>24.99</v>
       </c>
       <c r="E37" s="2">
-        <v>25.05</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2">
-        <v>26.07</v>
+        <v>26.02</v>
       </c>
       <c r="G37" s="2">
-        <v>28.48</v>
+        <v>28.42</v>
       </c>
       <c r="H37" s="2">
-        <v>29.66</v>
+        <v>29.6</v>
       </c>
       <c r="I37" s="2">
-        <v>28.36</v>
+        <v>28.34</v>
       </c>
       <c r="J37" s="2">
         <v>30.54</v>
       </c>
       <c r="K37" s="2">
-        <v>30.86</v>
+        <v>30.87</v>
       </c>
       <c r="L37" s="2">
-        <v>34.46</v>
+        <v>34.47</v>
       </c>
       <c r="M37" s="2">
-        <v>27.07</v>
+        <v>27.03</v>
       </c>
       <c r="N37" s="2">
         <v>26.26</v>
@@ -3534,28 +3733,28 @@
         <v>14</v>
       </c>
       <c r="C38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="2">
         <v>0.02</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.01</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J38" s="2">
         <v>0.01</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0.01</v>
@@ -3573,34 +3772,34 @@
         <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>0.6</v>
+        <v>1.41</v>
       </c>
       <c r="D39" s="2">
-        <v>-0.35</v>
+        <v>0.59</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.51</v>
+        <v>0.51</v>
       </c>
       <c r="F39" s="2">
-        <v>-1.81</v>
+        <v>-0.87</v>
       </c>
       <c r="G39" s="2">
-        <v>-0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="2">
-        <v>-0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I39" s="2">
-        <v>-0.34</v>
+        <v>0.42</v>
       </c>
       <c r="J39" s="2">
-        <v>-1.96</v>
+        <v>-1.22</v>
       </c>
       <c r="K39" s="2">
-        <v>-0.99</v>
+        <v>-0.48</v>
       </c>
       <c r="L39" s="2">
-        <v>-1.49</v>
+        <v>-1.21</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3610,37 +3809,37 @@
         <v>16</v>
       </c>
       <c r="C40" s="2">
-        <v>5.81</v>
+        <v>9.19</v>
       </c>
       <c r="D40" s="2">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="E40" s="2">
-        <v>1.39</v>
+        <v>5.34</v>
       </c>
       <c r="F40" s="2">
-        <v>-3.29</v>
+        <v>0.12</v>
       </c>
       <c r="G40" s="2">
-        <v>-0.82</v>
+        <v>3.77</v>
       </c>
       <c r="H40" s="2">
-        <v>1.73</v>
+        <v>5.67</v>
       </c>
       <c r="I40" s="2">
-        <v>1.95</v>
+        <v>5.08</v>
       </c>
       <c r="J40" s="2">
-        <v>-4.9800000000000004</v>
+        <v>-1.95</v>
       </c>
       <c r="K40" s="2">
-        <v>-1.26</v>
+        <v>1.04</v>
       </c>
       <c r="L40" s="2">
-        <v>-5.54</v>
+        <v>-3.99</v>
       </c>
       <c r="M40" s="2">
-        <v>-5.47</v>
+        <v>-4.01</v>
       </c>
       <c r="N40" s="2">
         <v>3.37</v>
@@ -3672,10 +3871,10 @@
         <v>0.88</v>
       </c>
       <c r="J41" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K41" s="2">
         <v>0.95</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.94</v>
       </c>
       <c r="L41" s="2">
         <v>0.97</v>
@@ -3690,37 +3889,37 @@
         <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>3.86</v>
+        <v>7.17</v>
       </c>
       <c r="D42" s="2">
-        <v>0.11</v>
+        <v>3.82</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.56000000000000005</v>
+        <v>3.29</v>
       </c>
       <c r="F42" s="2">
-        <v>-5.27</v>
+        <v>-1.94</v>
       </c>
       <c r="G42" s="2">
-        <v>-2.61</v>
+        <v>1.87</v>
       </c>
       <c r="H42" s="2">
-        <v>-0.13</v>
+        <v>3.72</v>
       </c>
       <c r="I42" s="2">
-        <v>0.01</v>
+        <v>3.08</v>
       </c>
       <c r="J42" s="2">
-        <v>-6.64</v>
+        <v>-3.67</v>
       </c>
       <c r="K42" s="2">
-        <v>-2.85</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="L42" s="2">
-        <v>-6.1</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="M42" s="2">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N42" s="2"/>
     </row>
@@ -3729,34 +3928,34 @@
         <v>19</v>
       </c>
       <c r="C43" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="D43" s="2">
         <v>1.03</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.03</v>
-      </c>
       <c r="E43" s="2">
-        <v>-0.16</v>
+        <v>0.91</v>
       </c>
       <c r="F43" s="2">
-        <v>-1.54</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G43" s="2">
-        <v>-0.67</v>
+        <v>0.47</v>
       </c>
       <c r="H43" s="2">
-        <v>-0.03</v>
+        <v>0.93</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J43" s="2">
-        <v>-1.7</v>
+        <v>-0.93</v>
       </c>
       <c r="K43" s="2">
-        <v>-0.68</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L43" s="2">
-        <v>-1.17</v>
+        <v>-0.87</v>
       </c>
       <c r="M43" s="2">
         <v>0.01</v>
@@ -3779,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A0CA3-ACCB-49A7-B2F6-AEE57C6FC935}">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,7 +3989,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3806,14 +4005,14 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
       <c r="H2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3838,19 +4037,19 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>11</v>
@@ -3861,34 +4060,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>12.1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>14.03</v>
+        <v>17.89</v>
       </c>
       <c r="E4" s="2">
-        <v>10.37</v>
+        <v>14.14</v>
       </c>
       <c r="F4" s="2">
-        <v>6.37</v>
+        <v>8.34</v>
       </c>
       <c r="G4" s="2">
-        <v>9.6999999999999993</v>
+        <v>11.06</v>
       </c>
       <c r="H4" s="2">
-        <v>11.69</v>
+        <v>15.67</v>
       </c>
       <c r="I4" s="2">
-        <v>13.41</v>
+        <v>18.11</v>
       </c>
       <c r="J4" s="2">
-        <v>8.2899999999999991</v>
+        <v>13.22</v>
       </c>
       <c r="K4" s="2">
-        <v>9.1</v>
+        <v>11.54</v>
       </c>
       <c r="L4" s="2">
-        <v>8.81</v>
+        <v>13.3</v>
       </c>
       <c r="M4" s="2">
         <v>14.88</v>
@@ -3899,34 +4098,34 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>18.399999999999999</v>
+        <v>18.27</v>
       </c>
       <c r="D5" s="2">
-        <v>23.84</v>
+        <v>23.86</v>
       </c>
       <c r="E5" s="2">
-        <v>28.31</v>
+        <v>28.22</v>
       </c>
       <c r="F5" s="2">
-        <v>32.42</v>
+        <v>32.44</v>
       </c>
       <c r="G5" s="2">
-        <v>38.700000000000003</v>
+        <v>38.72</v>
       </c>
       <c r="H5" s="2">
-        <v>19.559999999999999</v>
+        <v>19.54</v>
       </c>
       <c r="I5" s="2">
-        <v>23.55</v>
+        <v>23.66</v>
       </c>
       <c r="J5" s="2">
-        <v>26.67</v>
+        <v>26.36</v>
       </c>
       <c r="K5" s="2">
-        <v>28.69</v>
+        <v>28.83</v>
       </c>
       <c r="L5" s="2">
-        <v>34.85</v>
+        <v>34.81</v>
       </c>
       <c r="M5" s="2">
         <v>26.26</v>
@@ -3937,31 +4136,31 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D6" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="2">
         <v>0.01</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="2">
         <v>0.01</v>
       </c>
       <c r="H6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.01</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>0.01</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0.01</v>
@@ -3975,34 +4174,34 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.77</v>
+        <v>1.07</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.22</v>
+        <v>0.78</v>
       </c>
       <c r="E7" s="2">
-        <v>-1.01</v>
+        <v>-0.15</v>
       </c>
       <c r="F7" s="2">
-        <v>-1.58</v>
+        <v>-1.19</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.57999999999999996</v>
+        <v>-0.39</v>
       </c>
       <c r="H7" s="2">
-        <v>-1.03</v>
+        <v>0.34</v>
       </c>
       <c r="I7" s="2">
-        <v>-0.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>-2.29</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="K7" s="2">
-        <v>-1.74</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="2">
-        <v>-1.2</v>
+        <v>-0.24</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -4011,34 +4210,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>0.87</v>
+        <v>6.18</v>
       </c>
       <c r="D8" s="2">
-        <v>2.6</v>
+        <v>6.07</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.69</v>
+        <v>2.7</v>
       </c>
       <c r="F8" s="2">
-        <v>-4.29</v>
+        <v>-2.52</v>
       </c>
       <c r="G8" s="2">
-        <v>-1.29</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.5</v>
+        <v>4.08</v>
       </c>
       <c r="I8" s="2">
-        <v>2.0499999999999998</v>
+        <v>6.28</v>
       </c>
       <c r="J8" s="2">
-        <v>-2.57</v>
+        <v>1.88</v>
       </c>
       <c r="K8" s="2">
-        <v>-1.84</v>
+        <v>0.36</v>
       </c>
       <c r="L8" s="2">
-        <v>-2.1</v>
+        <v>1.94</v>
       </c>
       <c r="M8" s="2">
         <v>3.37</v>
@@ -4067,10 +4266,10 @@
         <v>0.63</v>
       </c>
       <c r="I9" s="2">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J9" s="2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="K9" s="2">
         <v>0.99</v>
@@ -4085,34 +4284,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.1399999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="D10" s="2">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="E10" s="2">
-        <v>-2.61</v>
+        <v>0.7</v>
       </c>
       <c r="F10" s="2">
-        <v>-5.63</v>
+        <v>-3.88</v>
       </c>
       <c r="G10" s="2">
-        <v>-1.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H10" s="2">
-        <v>-1.81</v>
+        <v>1.69</v>
       </c>
       <c r="I10" s="2">
-        <v>-0.62</v>
+        <v>3.48</v>
       </c>
       <c r="J10" s="2">
-        <v>-5.17</v>
+        <v>-0.83</v>
       </c>
       <c r="K10" s="2">
-        <v>-4.3</v>
+        <v>-2.17</v>
       </c>
       <c r="L10" s="2">
-        <v>-3.75</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="2"/>
     </row>
@@ -4121,40 +4320,40 @@
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.43</v>
+        <v>1.52</v>
       </c>
       <c r="D11" s="2">
-        <v>0.13</v>
+        <v>1.17</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.7</v>
+        <v>0.19</v>
       </c>
       <c r="F11" s="2">
-        <v>-1.3</v>
+        <v>-0.89</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.18</v>
+        <v>0.02</v>
       </c>
       <c r="H11" s="2">
-        <v>-0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I11" s="2">
-        <v>-0.25</v>
+        <v>1.41</v>
       </c>
       <c r="J11" s="2">
-        <v>-2.11</v>
+        <v>-0.33</v>
       </c>
       <c r="K11" s="2">
-        <v>-1.53</v>
+        <v>-0.77</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.94</v>
+        <v>0.05</v>
       </c>
       <c r="M11" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4170,18 +4369,18 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="7"/>
@@ -4198,25 +4397,25 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -4227,34 +4426,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>12.71</v>
+        <v>17.73</v>
       </c>
       <c r="D16" s="2">
-        <v>12.74</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>3.24</v>
+        <v>4.43</v>
       </c>
       <c r="F16" s="2">
-        <v>13.51</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="G16" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="H16" s="2">
-        <v>5.03</v>
+        <v>9.82</v>
       </c>
       <c r="I16" s="2">
-        <v>9.57</v>
+        <v>12.18</v>
       </c>
       <c r="J16" s="2">
-        <v>12.02</v>
+        <v>15.63</v>
       </c>
       <c r="K16" s="2">
-        <v>11.21</v>
+        <v>15.15</v>
       </c>
       <c r="L16" s="2">
-        <v>11.55</v>
+        <v>13.79</v>
       </c>
       <c r="M16" s="2">
         <v>14.88</v>
@@ -4265,34 +4464,34 @@
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>23.68</v>
+        <v>23.43</v>
       </c>
       <c r="D17" s="2">
-        <v>31.63</v>
+        <v>31.8</v>
       </c>
       <c r="E17" s="2">
-        <v>38.32</v>
+        <v>38.33</v>
       </c>
       <c r="F17" s="2">
-        <v>20.81</v>
+        <v>20.73</v>
       </c>
       <c r="G17" s="2">
-        <v>25.48</v>
+        <v>25.41</v>
       </c>
       <c r="H17" s="2">
-        <v>29.32</v>
+        <v>29.46</v>
       </c>
       <c r="I17" s="2">
         <v>33.75</v>
       </c>
       <c r="J17" s="2">
-        <v>19.84</v>
+        <v>19.62</v>
       </c>
       <c r="K17" s="2">
-        <v>25.66</v>
+        <v>25.78</v>
       </c>
       <c r="L17" s="2">
-        <v>30.53</v>
+        <v>30.55</v>
       </c>
       <c r="M17" s="2">
         <v>26.26</v>
@@ -4303,31 +4502,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D18" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.01</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="2">
         <v>0.01</v>
       </c>
       <c r="J18" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K18" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L18" s="2">
         <v>0.01</v>
@@ -4341,34 +4540,34 @@
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-0.56999999999999995</v>
+        <v>0.76</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.41</v>
+        <v>0.65</v>
       </c>
       <c r="E19" s="2">
-        <v>-1.53</v>
+        <v>-1.35</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.42</v>
+        <v>1.63</v>
       </c>
       <c r="G19" s="2">
-        <v>-2.19</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H19" s="2">
-        <v>-2.48</v>
+        <v>-1.24</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.93</v>
+        <v>-0.43</v>
       </c>
       <c r="J19" s="2">
-        <v>-0.88</v>
+        <v>0.32</v>
       </c>
       <c r="K19" s="2">
-        <v>-1.01</v>
+        <v>0.08</v>
       </c>
       <c r="L19" s="2">
-        <v>-0.66</v>
+        <v>-0.19</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -4377,34 +4576,34 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>1.41</v>
+        <v>5.94</v>
       </c>
       <c r="D20" s="2">
-        <v>1.44</v>
+        <v>5.94</v>
       </c>
       <c r="E20" s="2">
-        <v>-7.11</v>
+        <v>-6.04</v>
       </c>
       <c r="F20" s="2">
-        <v>2.14</v>
+        <v>7.6</v>
       </c>
       <c r="G20" s="2">
-        <v>-2.56</v>
+        <v>0.32</v>
       </c>
       <c r="H20" s="2">
-        <v>-5.49</v>
+        <v>-1.19</v>
       </c>
       <c r="I20" s="2">
-        <v>-1.41</v>
+        <v>0.94</v>
       </c>
       <c r="J20" s="2">
-        <v>0.79</v>
+        <v>4.04</v>
       </c>
       <c r="K20" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>3.61</v>
       </c>
       <c r="L20" s="2">
-        <v>0.37</v>
+        <v>2.39</v>
       </c>
       <c r="M20" s="2">
         <v>3.37</v>
@@ -4415,10 +4614,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D21" s="2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E21" s="2">
         <v>1.07</v>
@@ -4427,19 +4626,19 @@
         <v>0.68</v>
       </c>
       <c r="G21" s="2">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H21" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I21" s="2">
         <v>1.05</v>
       </c>
       <c r="J21" s="2">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="K21" s="2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L21" s="2">
         <v>0.95</v>
@@ -4451,34 +4650,34 @@
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.77</v>
+        <v>3.64</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.4</v>
+        <v>3.99</v>
       </c>
       <c r="E22" s="2">
-        <v>-7.01</v>
+        <v>-5.94</v>
       </c>
       <c r="F22" s="2">
-        <v>-0.31</v>
+        <v>5.01</v>
       </c>
       <c r="G22" s="2">
-        <v>-5.08</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="H22" s="2">
-        <v>-7.53</v>
+        <v>-3.33</v>
       </c>
       <c r="I22" s="2">
-        <v>-2.77</v>
+        <v>-0.44</v>
       </c>
       <c r="J22" s="2">
-        <v>-1.48</v>
+        <v>1.71</v>
       </c>
       <c r="K22" s="2">
-        <v>-2.2400000000000002</v>
+        <v>1.21</v>
       </c>
       <c r="L22" s="2">
-        <v>-1.37</v>
+        <v>0.61</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -4487,40 +4686,40 @@
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.24</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-1.02</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.86</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-0.99</v>
+      </c>
+      <c r="I23" s="2">
         <v>-0.1</v>
       </c>
-      <c r="E23" s="2">
-        <v>-1.21</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-1.99</v>
-      </c>
-      <c r="H23" s="2">
-        <v>-2.27</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-0.62</v>
-      </c>
       <c r="J23" s="2">
-        <v>-0.57999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="K23" s="2">
-        <v>-0.73</v>
+        <v>0.39</v>
       </c>
       <c r="L23" s="2">
-        <v>-0.34</v>
+        <v>0.15</v>
       </c>
       <c r="M23" s="2"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4536,18 +4735,18 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="7"/>
@@ -4564,25 +4763,25 @@
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>11</v>
@@ -4593,34 +4792,34 @@
         <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>17.420000000000002</v>
+        <v>22.64</v>
       </c>
       <c r="D28" s="2">
-        <v>14.29</v>
+        <v>17.78</v>
       </c>
       <c r="E28" s="2">
-        <v>21.16</v>
+        <v>22.43</v>
       </c>
       <c r="F28" s="2">
-        <v>14.15</v>
+        <v>20.62</v>
       </c>
       <c r="G28" s="2">
-        <v>10.64</v>
+        <v>14.53</v>
       </c>
       <c r="H28" s="2">
-        <v>10.039999999999999</v>
+        <v>14.55</v>
       </c>
       <c r="I28" s="2">
-        <v>12.13</v>
+        <v>13.83</v>
       </c>
       <c r="J28" s="2">
-        <v>3.94</v>
+        <v>8.33</v>
       </c>
       <c r="K28" s="2">
-        <v>0.75</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="L28" s="2">
-        <v>-0.11</v>
+        <v>2.56</v>
       </c>
       <c r="M28" s="2">
         <v>14.88</v>
@@ -4631,34 +4830,34 @@
         <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>21.01</v>
+        <v>20.73</v>
       </c>
       <c r="D29" s="2">
-        <v>26.27</v>
+        <v>26.02</v>
       </c>
       <c r="E29" s="2">
-        <v>31.15</v>
+        <v>31.05</v>
       </c>
       <c r="F29" s="2">
         <v>19.84</v>
       </c>
       <c r="G29" s="2">
-        <v>24.93</v>
+        <v>25.28</v>
       </c>
       <c r="H29" s="2">
-        <v>28.33</v>
+        <v>28.1</v>
       </c>
       <c r="I29" s="2">
-        <v>32.380000000000003</v>
+        <v>32.44</v>
       </c>
       <c r="J29" s="2">
-        <v>24.56</v>
+        <v>24.76</v>
       </c>
       <c r="K29" s="2">
-        <v>30.4</v>
+        <v>30.74</v>
       </c>
       <c r="L29" s="2">
-        <v>39.340000000000003</v>
+        <v>39.29</v>
       </c>
       <c r="M29" s="2">
         <v>26.26</v>
@@ -4669,7 +4868,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D30" s="2">
         <v>0.02</v>
@@ -4678,22 +4877,22 @@
         <v>0.03</v>
       </c>
       <c r="F30" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G30" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H30" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I30" s="2">
         <v>0.01</v>
       </c>
       <c r="J30" s="2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -4707,34 +4906,34 @@
         <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>0.78</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.14000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E31" s="2">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="F31" s="2">
-        <v>-0.19</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G31" s="2">
-        <v>-1.42</v>
+        <v>-0.11</v>
       </c>
       <c r="H31" s="2">
-        <v>-1.38</v>
+        <v>-0.08</v>
       </c>
       <c r="I31" s="2">
-        <v>-0.53</v>
+        <v>-0.17</v>
       </c>
       <c r="J31" s="2">
-        <v>-3.02</v>
+        <v>-1.74</v>
       </c>
       <c r="K31" s="2">
-        <v>-3.05</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="L31" s="2">
-        <v>-1.95</v>
+        <v>-1.56</v>
       </c>
       <c r="M31" s="2"/>
     </row>
@@ -4743,34 +4942,34 @@
         <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>5.66</v>
+        <v>10.35</v>
       </c>
       <c r="D32" s="2">
-        <v>2.84</v>
+        <v>5.98</v>
       </c>
       <c r="E32" s="2">
-        <v>9.02</v>
+        <v>10.16</v>
       </c>
       <c r="F32" s="2">
-        <v>2.71</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G32" s="2">
-        <v>-0.45</v>
+        <v>3.06</v>
       </c>
       <c r="H32" s="2">
-        <v>-0.98</v>
+        <v>3.07</v>
       </c>
       <c r="I32" s="2">
-        <v>0.89</v>
+        <v>2.42</v>
       </c>
       <c r="J32" s="2">
-        <v>-6.48</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="K32" s="2">
-        <v>-9.35</v>
+        <v>-6.4</v>
       </c>
       <c r="L32" s="2">
-        <v>-10.119999999999999</v>
+        <v>-7.72</v>
       </c>
       <c r="M32" s="2">
         <v>3.37</v>
@@ -4784,7 +4983,7 @@
         <v>0.65</v>
       </c>
       <c r="D33" s="2">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E33" s="2">
         <v>0.95</v>
@@ -4793,22 +4992,22 @@
         <v>0.64</v>
       </c>
       <c r="G33" s="2">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H33" s="2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I33" s="2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J33" s="2">
         <v>0.78</v>
       </c>
       <c r="K33" s="2">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L33" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M33" s="2"/>
     </row>
@@ -4817,34 +5016,34 @@
         <v>18</v>
       </c>
       <c r="C34" s="2">
-        <v>3.37</v>
+        <v>7.92</v>
       </c>
       <c r="D34" s="2">
-        <v>0.6</v>
+        <v>3.65</v>
       </c>
       <c r="E34" s="2">
-        <v>7.35</v>
+        <v>8.44</v>
       </c>
       <c r="F34" s="2">
-        <v>0.28999999999999998</v>
+        <v>5.97</v>
       </c>
       <c r="G34" s="2">
-        <v>-3.04</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="2">
-        <v>-3.39</v>
+        <v>0.54</v>
       </c>
       <c r="I34" s="2">
-        <v>-0.91</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J34" s="2">
-        <v>-8.5500000000000007</v>
+        <v>-4.66</v>
       </c>
       <c r="K34" s="2">
-        <v>-10.93</v>
+        <v>-8.02</v>
       </c>
       <c r="L34" s="2">
-        <v>-9.81</v>
+        <v>-7.38</v>
       </c>
       <c r="M34" s="2"/>
     </row>
@@ -4853,40 +5052,40 @@
         <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>1.17</v>
+        <v>2.78</v>
       </c>
       <c r="D35" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="2">
         <v>0.18</v>
       </c>
-      <c r="E35" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-1.2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-1.1499999999999999</v>
-      </c>
       <c r="I35" s="2">
-        <v>-0.23</v>
+        <v>0.15</v>
       </c>
       <c r="J35" s="2">
-        <v>-2.81</v>
+        <v>-1.48</v>
       </c>
       <c r="K35" s="2">
-        <v>-2.85</v>
+        <v>-2.04</v>
       </c>
       <c r="L35" s="2">
-        <v>-1.66</v>
+        <v>-1.23</v>
       </c>
       <c r="M35" s="2"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -4902,18 +5101,18 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
@@ -4930,25 +5129,25 @@
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>11</v>
@@ -4959,34 +5158,34 @@
         <v>12</v>
       </c>
       <c r="C40" s="2">
-        <v>13.79</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="D40" s="2">
-        <v>11.59</v>
+        <v>15.61</v>
       </c>
       <c r="E40" s="2">
-        <v>16.71</v>
+        <v>20.2</v>
       </c>
       <c r="F40" s="2">
-        <v>12.38</v>
+        <v>16.59</v>
       </c>
       <c r="G40" s="2">
-        <v>5.29</v>
+        <v>12.75</v>
       </c>
       <c r="H40" s="2">
-        <v>13.69</v>
+        <v>14.51</v>
       </c>
       <c r="I40" s="2">
-        <v>11.88</v>
+        <v>16.13</v>
       </c>
       <c r="J40" s="2">
-        <v>9.73</v>
+        <v>13.34</v>
       </c>
       <c r="K40" s="2">
-        <v>7.3</v>
+        <v>10.33</v>
       </c>
       <c r="L40" s="2">
-        <v>0.84</v>
+        <v>1.76</v>
       </c>
       <c r="M40" s="2">
         <v>14.88</v>
@@ -4997,34 +5196,34 @@
         <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>19.22</v>
+        <v>19.25</v>
       </c>
       <c r="D41" s="2">
-        <v>25.87</v>
+        <v>25.75</v>
       </c>
       <c r="E41" s="2">
-        <v>31.74</v>
+        <v>31.78</v>
       </c>
       <c r="F41" s="2">
-        <v>20.49</v>
+        <v>20.36</v>
       </c>
       <c r="G41" s="2">
-        <v>26.55</v>
+        <v>26.43</v>
       </c>
       <c r="H41" s="2">
-        <v>30.14</v>
+        <v>30.27</v>
       </c>
       <c r="I41" s="2">
-        <v>35.590000000000003</v>
+        <v>35.57</v>
       </c>
       <c r="J41" s="2">
-        <v>24.56</v>
+        <v>24.59</v>
       </c>
       <c r="K41" s="2">
-        <v>32.17</v>
+        <v>32.21</v>
       </c>
       <c r="L41" s="2">
-        <v>41.09</v>
+        <v>41.04</v>
       </c>
       <c r="M41" s="2">
         <v>26.26</v>
@@ -5035,31 +5234,31 @@
         <v>14</v>
       </c>
       <c r="C42" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G42" s="2">
         <v>0.01</v>
       </c>
-      <c r="D42" s="2">
+      <c r="H42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J42" s="2">
         <v>0.01</v>
       </c>
-      <c r="E42" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="K42" s="2">
         <v>0.01</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -5073,34 +5272,34 @@
         <v>15</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.25</v>
+        <v>1.08</v>
       </c>
       <c r="D43" s="2">
-        <v>-0.76</v>
+        <v>0.17</v>
       </c>
       <c r="E43" s="2">
-        <v>0.35</v>
+        <v>0.93</v>
       </c>
       <c r="F43" s="2">
-        <v>-0.68</v>
+        <v>0.54</v>
       </c>
       <c r="G43" s="2">
-        <v>-2.59</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="H43" s="2">
-        <v>-0.25</v>
+        <v>-0.06</v>
       </c>
       <c r="I43" s="2">
-        <v>-0.4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J43" s="2">
-        <v>-1.34</v>
+        <v>-0.39</v>
       </c>
       <c r="K43" s="2">
-        <v>-1.4</v>
+        <v>-0.81</v>
       </c>
       <c r="L43" s="2">
-        <v>-1.68</v>
+        <v>-1.55</v>
       </c>
       <c r="M43" s="2"/>
     </row>
@@ -5109,34 +5308,34 @@
         <v>16</v>
       </c>
       <c r="C44" s="2">
-        <v>2.39</v>
+        <v>6.56</v>
       </c>
       <c r="D44" s="2">
-        <v>0.41</v>
+        <v>4.03</v>
       </c>
       <c r="E44" s="2">
-        <v>5.01</v>
+        <v>8.16</v>
       </c>
       <c r="F44" s="2">
-        <v>1.1200000000000001</v>
+        <v>4.91</v>
       </c>
       <c r="G44" s="2">
-        <v>-5.26</v>
+        <v>1.45</v>
       </c>
       <c r="H44" s="2">
-        <v>2.2999999999999998</v>
+        <v>3.04</v>
       </c>
       <c r="I44" s="2">
-        <v>0.67</v>
+        <v>4.49</v>
       </c>
       <c r="J44" s="2">
-        <v>-1.27</v>
+        <v>1.98</v>
       </c>
       <c r="K44" s="2">
-        <v>-3.45</v>
+        <v>-0.73</v>
       </c>
       <c r="L44" s="2">
-        <v>-9.27</v>
+        <v>-8.44</v>
       </c>
       <c r="M44" s="2">
         <v>3.37</v>
@@ -5147,13 +5346,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D45" s="2">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E45" s="2">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F45" s="2">
         <v>0.62</v>
@@ -5183,34 +5382,34 @@
         <v>18</v>
       </c>
       <c r="C46" s="2">
-        <v>0.4</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D46" s="2">
-        <v>-1.53</v>
+        <v>2.04</v>
       </c>
       <c r="E46" s="2">
-        <v>3.85</v>
+        <v>6.93</v>
       </c>
       <c r="F46" s="2">
-        <v>-0.98</v>
+        <v>2.72</v>
       </c>
       <c r="G46" s="2">
-        <v>-7.39</v>
+        <v>-0.83</v>
       </c>
       <c r="H46" s="2">
-        <v>0.22</v>
+        <v>0.94</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.17</v>
+        <v>3.61</v>
       </c>
       <c r="J46" s="2">
-        <v>-3.38</v>
+        <v>-0.2</v>
       </c>
       <c r="K46" s="2">
-        <v>-4.82</v>
+        <v>-2.15</v>
       </c>
       <c r="L46" s="2">
-        <v>-8.5299999999999994</v>
+        <v>-7.69</v>
       </c>
       <c r="M46" s="2"/>
     </row>
@@ -5219,39 +5418,46 @@
         <v>19</v>
       </c>
       <c r="C47" s="2">
-        <v>0.14000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="D47" s="2">
-        <v>-0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E47" s="2">
-        <v>0.79</v>
+        <v>1.4</v>
       </c>
       <c r="F47" s="2">
-        <v>-0.34</v>
+        <v>0.94</v>
       </c>
       <c r="G47" s="2">
-        <v>-2.38</v>
+        <v>-0.26</v>
       </c>
       <c r="H47" s="2">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I47" s="2">
-        <v>-0.03</v>
+        <v>0.69</v>
       </c>
       <c r="J47" s="2">
-        <v>-1.06</v>
+        <v>-0.06</v>
       </c>
       <c r="K47" s="2">
-        <v>-1.1000000000000001</v>
+        <v>-0.49</v>
       </c>
       <c r="L47" s="2">
-        <v>-1.36</v>
+        <v>-1.22</v>
       </c>
       <c r="M47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:M1"/>
@@ -5260,13 +5466,6 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5277,29 +5476,29 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -5307,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.17</v>
+        <v>2.34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -5321,13 +5520,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>-0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -5335,13 +5534,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.69</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.12</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -5349,13 +5548,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.58</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>0.82</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5363,13 +5562,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.27</v>
+        <v>-0.97</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>-1.72</v>
+        <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5377,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.52</v>
+        <v>-0.08</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>-1.45</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -5391,13 +5590,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.11</v>
+        <v>0.35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>1.49</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5405,13 +5604,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="2">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -5419,13 +5618,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>1.06</v>
+        <v>0.44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.79</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5433,33 +5632,33 @@
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.35</v>
+        <v>-0.51</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.39</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -5467,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.35</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.82</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -5481,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.67</v>
+        <v>-0.35</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.4</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -5495,13 +5694,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>0.81</v>
+        <v>0.09</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -5509,13 +5708,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.24</v>
+        <v>1.02</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>0.99</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -5523,13 +5722,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>-1.1399999999999999</v>
+        <v>-1.28</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="2">
-        <v>-1.21</v>
+        <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -5537,13 +5736,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>0.09</v>
+        <v>-0.2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>0.14000000000000001</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -5551,13 +5750,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -5565,13 +5764,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.8</v>
+        <v>-0.81</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="2">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -5579,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>-1.2</v>
+        <v>-1.33</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.47</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -5593,13 +5792,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>1.43</v>
+        <v>1.96</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.35</v>
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5818,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AC1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5677,7 +5876,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>11</v>
@@ -5688,37 +5887,37 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>8.77</v>
+        <v>12.96</v>
       </c>
       <c r="D3" s="2">
-        <v>10.44</v>
+        <v>15.61</v>
       </c>
       <c r="E3" s="2">
-        <v>12.46</v>
+        <v>15.84</v>
       </c>
       <c r="F3" s="2">
-        <v>7.31</v>
+        <v>12.53</v>
       </c>
       <c r="G3" s="2">
-        <v>9.33</v>
+        <v>14.22</v>
       </c>
       <c r="H3" s="2">
-        <v>9.66</v>
+        <v>12.14</v>
       </c>
       <c r="I3" s="2">
-        <v>11.44</v>
+        <v>14.18</v>
       </c>
       <c r="J3" s="2">
-        <v>17.87</v>
+        <v>21.02</v>
       </c>
       <c r="K3" s="2">
-        <v>8.02</v>
+        <v>11.97</v>
       </c>
       <c r="L3" s="2">
-        <v>9.86</v>
+        <v>11.87</v>
       </c>
       <c r="M3" s="2">
-        <v>-13.1</v>
+        <v>-11.33</v>
       </c>
       <c r="N3" s="2">
         <v>14.88</v>
@@ -5729,37 +5928,37 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>17.239999999999998</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>21.76</v>
+        <v>21.66</v>
       </c>
       <c r="F4" s="2">
-        <v>23.99</v>
+        <v>23.88</v>
       </c>
       <c r="G4" s="2">
-        <v>26.21</v>
+        <v>26.39</v>
       </c>
       <c r="H4" s="2">
-        <v>28.24</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2">
-        <v>29.86</v>
+        <v>29.87</v>
       </c>
       <c r="J4" s="2">
-        <v>31.36</v>
+        <v>31.42</v>
       </c>
       <c r="K4" s="2">
-        <v>34.369999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L4" s="2">
         <v>41.24</v>
       </c>
       <c r="M4" s="2">
-        <v>34.520000000000003</v>
+        <v>34.44</v>
       </c>
       <c r="N4" s="2">
         <v>26.26</v>
@@ -5770,28 +5969,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="2">
         <v>0.01</v>
       </c>
       <c r="I5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J5" s="2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K5" s="2">
         <v>0.01</v>
@@ -5809,34 +6008,34 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.62</v>
+        <v>-0.43</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.22</v>
+        <v>0.26</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.65</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="2">
-        <v>-1.98</v>
+        <v>-0.6</v>
       </c>
       <c r="G6" s="2">
-        <v>-1.39</v>
+        <v>-0.16</v>
       </c>
       <c r="H6" s="2">
-        <v>-1.29</v>
+        <v>-0.67</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.78</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J6" s="2">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
       <c r="K6" s="2">
-        <v>-1.63</v>
+        <v>-0.63</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.65</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -5846,37 +6045,37 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>-2.13</v>
+        <v>1.64</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.63</v>
+        <v>4.03</v>
       </c>
       <c r="E7" s="2">
-        <v>1.19</v>
+        <v>4.24</v>
       </c>
       <c r="F7" s="2">
-        <v>-3.45</v>
+        <v>1.26</v>
       </c>
       <c r="G7" s="2">
-        <v>-1.63</v>
+        <v>2.78</v>
       </c>
       <c r="H7" s="2">
-        <v>-1.33</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="2">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="J7" s="2">
-        <v>6.06</v>
+        <v>8.9</v>
       </c>
       <c r="K7" s="2">
-        <v>-2.81</v>
+        <v>0.75</v>
       </c>
       <c r="L7" s="2">
-        <v>-1.1499999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="M7" s="2">
-        <v>-21.82</v>
+        <v>-20.23</v>
       </c>
       <c r="N7" s="2">
         <v>3.37</v>
@@ -5887,7 +6086,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D8" s="2">
         <v>0.59</v>
@@ -5899,13 +6098,13 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="H8" s="2">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I8" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J8" s="2">
         <v>1.05</v>
@@ -5926,37 +6125,37 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>-3.66</v>
+        <v>0.03</v>
       </c>
       <c r="D9" s="2">
-        <v>-2.6</v>
+        <v>1.98</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.96</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>-5.46</v>
+        <v>-0.86</v>
       </c>
       <c r="G9" s="2">
-        <v>-3.7</v>
+        <v>0.59</v>
       </c>
       <c r="H9" s="2">
-        <v>-3.46</v>
+        <v>-1.28</v>
       </c>
       <c r="I9" s="2">
-        <v>-1.77</v>
+        <v>0.64</v>
       </c>
       <c r="J9" s="2">
-        <v>3.79</v>
+        <v>6.56</v>
       </c>
       <c r="K9" s="2">
-        <v>-4.78</v>
+        <v>-1.32</v>
       </c>
       <c r="L9" s="2">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -5965,34 +6164,34 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.29</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.9</v>
+        <v>0.67</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.32</v>
+        <v>0.68</v>
       </c>
       <c r="F10" s="2">
-        <v>-1.72</v>
+        <v>-0.27</v>
       </c>
       <c r="G10" s="2">
-        <v>-1.1100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="H10" s="2">
-        <v>-1.03</v>
+        <v>-0.38</v>
       </c>
       <c r="I10" s="2">
-        <v>-0.49</v>
+        <v>0.17</v>
       </c>
       <c r="J10" s="2">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="K10" s="2">
-        <v>-1.42</v>
+        <v>-0.39</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0.01</v>
@@ -6049,7 +6248,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>20</v>
@@ -6060,37 +6259,37 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D14" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E14" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F14" s="2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I14" s="2">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J14" s="2">
         <v>1.42</v>
       </c>
       <c r="K14" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="L14" s="2">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M14" s="2">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N14" s="2">
         <v>1.1599999999999999</v>
@@ -6104,16 +6303,16 @@
         <v>-0.78</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.89</v>
+        <v>-0.87</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.96</v>
+        <v>-0.95</v>
       </c>
       <c r="F15" s="2">
-        <v>-1.0900000000000001</v>
+        <v>-1.07</v>
       </c>
       <c r="G15" s="2">
-        <v>-1.17</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="H15" s="2">
         <v>-1.28</v>
@@ -6131,7 +6330,7 @@
         <v>-1.87</v>
       </c>
       <c r="M15" s="2">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
       <c r="N15" s="2">
         <v>-1.17</v>
@@ -6142,22 +6341,22 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>-9.4</v>
+        <v>-10.3</v>
       </c>
       <c r="D16" s="2">
-        <v>-13.75</v>
+        <v>-13.46</v>
       </c>
       <c r="E16" s="2">
-        <v>-13.59</v>
+        <v>-12.99</v>
       </c>
       <c r="F16" s="2">
         <v>-15.4</v>
       </c>
       <c r="G16" s="2">
-        <v>-18.75</v>
+        <v>-19.38</v>
       </c>
       <c r="H16" s="2">
-        <v>-19.27</v>
+        <v>-18.53</v>
       </c>
       <c r="I16" s="2">
         <v>-15.42</v>
@@ -6166,13 +6365,13 @@
         <v>-16.510000000000002</v>
       </c>
       <c r="K16" s="2">
-        <v>-19.739999999999998</v>
+        <v>-19.7</v>
       </c>
       <c r="L16" s="2">
         <v>-21.21</v>
       </c>
       <c r="M16" s="2">
-        <v>-16.309999999999999</v>
+        <v>-16.510000000000002</v>
       </c>
       <c r="N16" s="2">
         <v>-14.89</v>
@@ -6200,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>11</v>
@@ -6211,16 +6410,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <v>13.28</v>
+        <v>15.36</v>
       </c>
       <c r="D20" s="2">
-        <v>10.54</v>
+        <v>13.9</v>
       </c>
       <c r="E20" s="2">
-        <v>9.58</v>
+        <v>15.65</v>
       </c>
       <c r="F20" s="2">
-        <v>-2.2799999999999998</v>
+        <v>-6.79</v>
       </c>
       <c r="G20" s="2">
         <v>14.88</v>
@@ -6231,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>18.72</v>
+        <v>17.54</v>
       </c>
       <c r="D21" s="2">
-        <v>25.09</v>
+        <v>24.75</v>
       </c>
       <c r="E21" s="2">
-        <v>32.43</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2">
-        <v>20.38</v>
+        <v>22.4</v>
       </c>
       <c r="G21" s="2">
         <v>26.26</v>
@@ -6251,13 +6450,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D22" s="2">
         <v>0.01</v>
       </c>
       <c r="E22" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -6269,13 +6468,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.61</v>
+        <v>0.34</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.95</v>
+        <v>-0.35</v>
       </c>
       <c r="E23" s="2">
-        <v>-1.1399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -6285,16 +6484,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>1.93</v>
+        <v>3.8</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.54</v>
+        <v>2.48</v>
       </c>
       <c r="E24" s="2">
-        <v>-1.4</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F24" s="2">
-        <v>-12.08</v>
+        <v>-16.14</v>
       </c>
       <c r="G24" s="2">
         <v>3.37</v>
@@ -6305,16 +6504,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D25" s="2">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E25" s="2">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.42</v>
+        <v>-0.63</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -6323,16 +6522,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.69</v>
+        <v>1.45</v>
       </c>
       <c r="D26" s="2">
-        <v>-3.41</v>
+        <v>-0.27</v>
       </c>
       <c r="E26" s="2">
-        <v>-3.27</v>
+        <v>1.67</v>
       </c>
       <c r="F26" s="2">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -6341,13 +6540,13 @@
         <v>19</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.38</v>
+        <v>0.67</v>
       </c>
       <c r="D27" s="2">
-        <v>-1.79</v>
+        <v>-0.12</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.87</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F27" s="2">
         <v>0.01</v>
@@ -6362,4 +6561,19 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347775A-2485-434F-AA44-A780078FD523}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fig_Tab.xlsx
+++ b/Fig_Tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Avantgarde\Paper-Avant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96442D33-C5B1-49C4-9FFB-0F18695DA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A4257-904A-43C9-9C08-CFA1754FE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
+    <workbookView xWindow="-23040" yWindow="204" windowWidth="16536" windowHeight="7608" firstSheet="1" activeTab="9" xr2:uid="{B70AD785-D4A7-4D3E-B26F-97BC3EE7EC33}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="64">
   <si>
     <t>D1</t>
   </si>
@@ -82,121 +82,16 @@
     <t>Univ.</t>
   </si>
   <si>
-    <t>Retorno Anualizado (%)</t>
-  </si>
-  <si>
-    <t>Sigma (%)</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>t(IS)</t>
-  </si>
-  <si>
-    <t>Rp-Rf Anualizado (%)</t>
-  </si>
-  <si>
     <t>Beta</t>
-  </si>
-  <si>
-    <t>Alfa (%)</t>
-  </si>
-  <si>
-    <t>t(alfa)</t>
   </si>
   <si>
     <t>Univ</t>
   </si>
   <si>
-    <t>Media das alturas</t>
-  </si>
-  <si>
-    <t>Media das baixas</t>
-  </si>
-  <si>
-    <t>Maior perda observada</t>
-  </si>
-  <si>
-    <t>Painel A</t>
-  </si>
-  <si>
-    <t>Painel B</t>
-  </si>
-  <si>
-    <t>Painel C</t>
-  </si>
-  <si>
-    <t>Painel A: 2003 - 2008</t>
-  </si>
-  <si>
-    <t>Painel B: 2009</t>
-  </si>
-  <si>
-    <t>Menores.Vol</t>
-  </si>
-  <si>
-    <t>Intermediaria</t>
-  </si>
-  <si>
-    <t>Maiores.Vol</t>
-  </si>
-  <si>
     <t>CAPM</t>
   </si>
   <si>
-    <t>3 Fatores</t>
-  </si>
-  <si>
-    <t>4 Fatores</t>
-  </si>
-  <si>
-    <t>5 Fatores</t>
-  </si>
-  <si>
-    <t>Painel A: Alfa</t>
-  </si>
-  <si>
-    <t>Painel B: t-valor</t>
-  </si>
-  <si>
-    <t>Painel A: Tamanho</t>
-  </si>
-  <si>
-    <t>Painel B: Valor</t>
-  </si>
-  <si>
-    <t>Painel C: Momentum</t>
-  </si>
-  <si>
     <t>Painel D: Qualidade</t>
-  </si>
-  <si>
-    <t>50% menores empresas</t>
-  </si>
-  <si>
-    <t>50% maiores empresas</t>
-  </si>
-  <si>
-    <t>30% mais baratas</t>
-  </si>
-  <si>
-    <t>40% Intermediárias</t>
-  </si>
-  <si>
-    <t>30% mais caras</t>
-  </si>
-  <si>
-    <t>30% maiores retornos</t>
-  </si>
-  <si>
-    <t>30% menores retornos</t>
-  </si>
-  <si>
-    <t>30% maior qualidade</t>
-  </si>
-  <si>
-    <t>30% menor qualidade</t>
   </si>
   <si>
     <t>10 Portfólios</t>
@@ -205,19 +100,10 @@
     <t>3 Portfólios (0.3; 0.4; 0.3)</t>
   </si>
   <si>
-    <t>Painel C: 2010 - 2021</t>
-  </si>
-  <si>
     <t>Dn</t>
   </si>
   <si>
-    <t>Painel D: Quality</t>
-  </si>
-  <si>
     <t>D1_D10</t>
-  </si>
-  <si>
-    <t>Beta Puro</t>
   </si>
   <si>
     <t>Beta Blume</t>
@@ -226,7 +112,130 @@
     <t>Max. Drawdown</t>
   </si>
   <si>
-    <t>Tabela 8 - Strategy Metrics</t>
+    <t>Annualized Return (%)</t>
+  </si>
+  <si>
+    <t>Standard Deviation (%)</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>z(SR)</t>
+  </si>
+  <si>
+    <t>Annualized Rp-Rf (%)</t>
+  </si>
+  <si>
+    <t>Alpha (%)</t>
+  </si>
+  <si>
+    <t>t(alpha)</t>
+  </si>
+  <si>
+    <t>Average positive returns (%)</t>
+  </si>
+  <si>
+    <t>Average negative returns (%)</t>
+  </si>
+  <si>
+    <t>Biggest loss - day (%)</t>
+  </si>
+  <si>
+    <t>F&amp;F</t>
+  </si>
+  <si>
+    <t>Cahart</t>
+  </si>
+  <si>
+    <t>5 Factors</t>
+  </si>
+  <si>
+    <t>Low Vol.</t>
+  </si>
+  <si>
+    <t>Mid Vol.</t>
+  </si>
+  <si>
+    <t>High Vol.</t>
+  </si>
+  <si>
+    <t>Panel A</t>
+  </si>
+  <si>
+    <t>Panel B</t>
+  </si>
+  <si>
+    <t>Panel C</t>
+  </si>
+  <si>
+    <t>Panel D</t>
+  </si>
+  <si>
+    <t>Panel A: 2003 - 2008</t>
+  </si>
+  <si>
+    <t>Panel B: 2009</t>
+  </si>
+  <si>
+    <t>Panel C: 2010 - 2021</t>
+  </si>
+  <si>
+    <t>Panel B: t-value</t>
+  </si>
+  <si>
+    <t>Panel A: Alpha</t>
+  </si>
+  <si>
+    <t>Panel A: Size</t>
+  </si>
+  <si>
+    <t>Panel B: Value</t>
+  </si>
+  <si>
+    <t>Panel C: Momentum</t>
+  </si>
+  <si>
+    <t>Panel D: Quality</t>
+  </si>
+  <si>
+    <t>Panel A: Tamanho</t>
+  </si>
+  <si>
+    <t>Panel B: Valor</t>
+  </si>
+  <si>
+    <t>40% Mid</t>
+  </si>
+  <si>
+    <t>50% Small</t>
+  </si>
+  <si>
+    <t>50% Big</t>
+  </si>
+  <si>
+    <t>30% Value</t>
+  </si>
+  <si>
+    <t>30% Growth</t>
+  </si>
+  <si>
+    <t>30% Winners</t>
+  </si>
+  <si>
+    <t>30% Losers</t>
+  </si>
+  <si>
+    <t>30% Quality</t>
+  </si>
+  <si>
+    <t>30% Junk</t>
+  </si>
+  <si>
+    <t>Table 8 - Strategy Metrics</t>
+  </si>
+  <si>
+    <t>Pure Beta</t>
   </si>
 </sst>
 </file>
@@ -454,20 +463,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>18133</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108127</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408533</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E1B529-33EC-48DA-B454-D5D0FB9BFBD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A71181-7F64-4799-A4C0-5A992704E24C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,8 +492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="281940"/>
-          <a:ext cx="7333333" cy="3666667"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="8333333" cy="4342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,15 +804,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE57FFD1-8038-474A-B57C-2E435CF14567}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -818,7 +827,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -846,130 +855,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE61803-7805-43C1-88A4-6CCB2B3DF1E5}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27.56</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11.58</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15.27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>22.97</v>
-      </c>
-      <c r="D4" s="2">
-        <v>21.76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.72</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2">
-        <v>0.59</v>
+        <v>-0.02</v>
       </c>
       <c r="D8" s="2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>6.45</v>
+        <v>16.14</v>
       </c>
       <c r="D9" s="2">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>1.56</v>
+        <v>5.44</v>
       </c>
       <c r="D10" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>65.97</v>
+        <v>27.35</v>
       </c>
       <c r="D11" s="2">
-        <v>64.37</v>
+        <v>35.68</v>
       </c>
     </row>
   </sheetData>
@@ -983,21 +992,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3E553-061D-44F2-8E07-24EE4FC2E55E}">
-  <dimension ref="B1:N27"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1012,7 +1021,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1051,9 +1060,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>14.43</v>
@@ -1092,9 +1101,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>17.170000000000002</v>
@@ -1133,9 +1142,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>0.02</v>
@@ -1172,18 +1181,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="D6" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="E6" s="2">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="F6" s="2">
         <v>0.68</v>
@@ -1195,64 +1204,64 @@
         <v>-0.41</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="J6" s="2">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="K6" s="2">
-        <v>-0.84</v>
+        <v>-0.83</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="D7" s="2">
-        <v>9.19</v>
+        <v>9.02</v>
       </c>
       <c r="E7" s="2">
-        <v>5.99</v>
+        <v>5.82</v>
       </c>
       <c r="F7" s="2">
-        <v>5.22</v>
+        <v>5.05</v>
       </c>
       <c r="G7" s="2">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="H7" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="I7" s="2">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J7" s="2">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="K7" s="2">
-        <v>-0.99</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>-2.62</v>
+        <v>-2.78</v>
       </c>
       <c r="M7" s="2">
-        <v>-15.36</v>
+        <v>-15.5</v>
       </c>
       <c r="N7" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0.52</v>
@@ -1289,27 +1298,27 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="D9" s="2">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="E9" s="2">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>-1.34</v>
+        <v>-1.36</v>
       </c>
       <c r="H9" s="2">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="I9" s="2">
         <v>-0.13</v>
@@ -1318,34 +1327,34 @@
         <v>0.83</v>
       </c>
       <c r="K9" s="2">
-        <v>-2.35</v>
+        <v>-2.34</v>
       </c>
       <c r="L9" s="2">
-        <v>-2.31</v>
+        <v>-2.29</v>
       </c>
       <c r="M9" s="2">
         <v>0.15</v>
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="D10" s="2">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="E10" s="2">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="F10" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H10" s="2">
         <v>-0.15</v>
@@ -1367,9 +1376,9 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1384,7 +1393,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -1417,15 +1426,15 @@
         <v>9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0.78</v>
@@ -1464,9 +1473,9 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>-0.77</v>
@@ -1505,9 +1514,9 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>-8.92</v>
@@ -1546,9 +1555,9 @@
         <v>-14.89</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1556,7 +1565,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -1574,9 +1583,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>17.829999999999998</v>
@@ -1594,9 +1603,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>18.600000000000001</v>
@@ -1614,9 +1623,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>0.03</v>
@@ -1632,45 +1641,45 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>6.02</v>
+        <v>5.85</v>
       </c>
       <c r="D24" s="2">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
       <c r="E24" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="F24" s="2">
-        <v>-10.34</v>
+        <v>-10.49</v>
       </c>
       <c r="G24" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>0.64</v>
@@ -1686,33 +1695,33 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="D26" s="2">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E26" s="2">
-        <v>-1.36</v>
+        <v>-1.35</v>
       </c>
       <c r="F26" s="2">
         <v>0.22</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="D27" s="2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E27" s="2">
         <v>-0.36</v>
@@ -1722,11 +1731,87 @@
       </c>
       <c r="G27" s="2"/>
     </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-0.82</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1.48</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-11.31</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-16.77</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-20.78</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-14.89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1738,17 +1823,17 @@
   <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1756,7 +1841,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1774,9 +1859,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>27.91</v>
@@ -1794,9 +1879,9 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>20.91</v>
@@ -1814,12 +1899,12 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="2">
         <v>0.01</v>
@@ -1832,15 +1917,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.1599999999999999</v>
+        <v>-1.17</v>
       </c>
       <c r="E6" s="2">
         <v>-1.07</v>
@@ -1848,29 +1933,29 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>10.07</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D7" s="2">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.44</v>
+        <v>-0.68</v>
       </c>
       <c r="F7" s="2">
-        <v>-9.4499999999999993</v>
+        <v>-9.67</v>
       </c>
       <c r="G7" s="2">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0.63</v>
@@ -1886,33 +1971,33 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>4.4400000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="D9" s="2">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E9" s="2">
-        <v>-5.79</v>
+        <v>-5.8</v>
       </c>
       <c r="F9" s="2">
         <v>0.49</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="E10" s="2">
         <v>-0.85</v>
@@ -1922,9 +2007,9 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1932,7 +2017,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -1950,9 +2035,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>54.59</v>
@@ -1970,9 +2055,9 @@
         <v>75.16</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>16.899999999999999</v>
@@ -1990,9 +2075,9 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>0.13</v>
@@ -2008,12 +2093,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D17" s="2">
         <v>1.58</v>
@@ -2024,29 +2109,29 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>40.770000000000003</v>
+        <v>40.36</v>
       </c>
       <c r="D18" s="2">
-        <v>73.09</v>
+        <v>72.59</v>
       </c>
       <c r="E18" s="2">
-        <v>143.62</v>
+        <v>142.91999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>-50.52</v>
+        <v>-50.66</v>
       </c>
       <c r="G18" s="2">
-        <v>59.51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>0.48</v>
@@ -2062,33 +2147,33 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>11.82</v>
+        <v>11.67</v>
       </c>
       <c r="D20" s="2">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="E20" s="2">
-        <v>61.52</v>
+        <v>61.47</v>
       </c>
       <c r="F20" s="2">
         <v>-1.74</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="D21" s="2">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="E21" s="2">
         <v>2.94</v>
@@ -2098,9 +2183,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2108,7 +2193,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -2126,9 +2211,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>10.56</v>
@@ -2146,9 +2231,9 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>17.46</v>
@@ -2166,9 +2251,9 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <v>0.01</v>
@@ -2184,45 +2269,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="D28" s="2">
         <v>0.73</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.54</v>
+        <v>-0.65</v>
       </c>
       <c r="E29" s="2">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="F29" s="2">
-        <v>-6.28</v>
+        <v>-6.38</v>
       </c>
       <c r="G29" s="2">
-        <v>-2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <v>0.67</v>
@@ -2238,33 +2323,33 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="D31" s="2">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="E31" s="2">
-        <v>-1.64</v>
+        <v>-1.61</v>
       </c>
       <c r="F31" s="2">
         <v>0.21</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E32" s="2">
         <v>-0.37</v>
@@ -2289,167 +2374,167 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-1.34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" s="2">
-        <v>2.84</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>0.39</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E6" s="2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="2">
-        <v>1.64</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="E13" s="2">
-        <v>0.26</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2466,17 +2551,17 @@
   <dimension ref="B1:N43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:N43"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2491,7 +2576,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2530,9 +2615,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>4.76</v>
@@ -2571,9 +2656,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>32.39</v>
@@ -2612,9 +2697,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -2651,12 +2736,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="D6" s="2">
         <v>-0.02</v>
@@ -2683,55 +2768,55 @@
         <v>-1.42</v>
       </c>
       <c r="L6" s="2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>-5.74</v>
+        <v>-5.89</v>
       </c>
       <c r="D7" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.53</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-20.88</v>
+      </c>
+      <c r="N7" s="2">
         <v>3.2</v>
       </c>
-      <c r="E7" s="2">
-        <v>4.82</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.71</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.83</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.92</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-0.74</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.51</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-20.75</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0.85</v>
@@ -2768,51 +2853,51 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>-6.21</v>
+        <v>-6.23</v>
       </c>
       <c r="D9" s="2">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="E9" s="2">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="F9" s="2">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="G9" s="2">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="H9" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I9" s="2">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="J9" s="2">
-        <v>-1.02</v>
+        <v>-1.05</v>
       </c>
       <c r="K9" s="2">
-        <v>-3.26</v>
+        <v>-3.28</v>
       </c>
       <c r="L9" s="2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" s="2">
         <v>-0.37</v>
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>-1.18</v>
+        <v>-1.19</v>
       </c>
       <c r="D10" s="2">
         <v>0.36</v>
@@ -2821,34 +2906,34 @@
         <v>0.73</v>
       </c>
       <c r="F10" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G10" s="2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H10" s="2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I10" s="2">
         <v>0.87</v>
       </c>
       <c r="J10" s="2">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="K10" s="2">
-        <v>-1.19</v>
+        <v>-1.2</v>
       </c>
       <c r="L10" s="2">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M10" s="2">
         <v>0.01</v>
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2863,7 +2948,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -2902,9 +2987,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>12.89</v>
@@ -2943,9 +3028,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>33.17</v>
@@ -2984,9 +3069,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>0.01</v>
@@ -3023,24 +3108,24 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>-0.27</v>
       </c>
       <c r="D17" s="2">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E17" s="2">
         <v>-0.7</v>
       </c>
       <c r="F17" s="2">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="G17" s="2">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H17" s="2">
         <v>0.24</v>
@@ -3049,7 +3134,7 @@
         <v>-1.7</v>
       </c>
       <c r="J17" s="2">
-        <v>-1.92</v>
+        <v>-1.93</v>
       </c>
       <c r="K17" s="2">
         <v>0.67</v>
@@ -3060,50 +3145,50 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="D18" s="2">
-        <v>5.15</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="E18" s="2">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="F18" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="G18" s="2">
-        <v>7.22</v>
+        <v>7.05</v>
       </c>
       <c r="H18" s="2">
-        <v>4.18</v>
+        <v>4.01</v>
       </c>
       <c r="I18" s="2">
-        <v>-2.14</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="J18" s="2">
-        <v>-2.68</v>
+        <v>-2.84</v>
       </c>
       <c r="K18" s="2">
-        <v>5.55</v>
+        <v>5.38</v>
       </c>
       <c r="L18" s="2">
-        <v>5.22</v>
+        <v>5.05</v>
       </c>
       <c r="M18" s="2">
-        <v>-13.83</v>
+        <v>-13.97</v>
       </c>
       <c r="N18" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>0.95</v>
@@ -3140,48 +3225,48 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="D20" s="2">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="E20" s="2">
-        <v>-1.4</v>
+        <v>-1.41</v>
       </c>
       <c r="F20" s="2">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G20" s="2">
-        <v>4.8099999999999996</v>
+        <v>4.79</v>
       </c>
       <c r="H20" s="2">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I20" s="2">
-        <v>-4.42</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="J20" s="2">
-        <v>-4.9800000000000004</v>
+        <v>-5</v>
       </c>
       <c r="K20" s="2">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="L20" s="2">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="M20" s="2">
         <v>-0.11</v>
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>0.12</v>
@@ -3190,37 +3275,37 @@
         <v>0.8</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G21" s="2">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H21" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I21" s="2">
-        <v>-1.46</v>
+        <v>-1.47</v>
       </c>
       <c r="J21" s="2">
-        <v>-1.69</v>
+        <v>-1.7</v>
       </c>
       <c r="K21" s="2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L21" s="2">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M21" s="2">
         <v>0.01</v>
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3235,7 +3320,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -3274,9 +3359,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>24.86</v>
@@ -3315,9 +3400,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>26.84</v>
@@ -3356,9 +3441,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <v>0.04</v>
@@ -3373,7 +3458,7 @@
         <v>0.02</v>
       </c>
       <c r="G27" s="2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H27" s="2">
         <v>0.02</v>
@@ -3395,9 +3480,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -3424,58 +3509,58 @@
         <v>-1.1499999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>-1.18</v>
+        <v>-1.17</v>
       </c>
       <c r="L28" s="2">
-        <v>-2.5</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>12.35</v>
+        <v>12.17</v>
       </c>
       <c r="D29" s="2">
-        <v>7.03</v>
+        <v>6.85</v>
       </c>
       <c r="E29" s="2">
-        <v>8.56</v>
+        <v>8.39</v>
       </c>
       <c r="F29" s="2">
-        <v>6.6</v>
+        <v>6.42</v>
       </c>
       <c r="G29" s="2">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="H29" s="2">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="I29" s="2">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="J29" s="2">
-        <v>-0.78</v>
+        <v>-0.94</v>
       </c>
       <c r="K29" s="2">
-        <v>-1.67</v>
+        <v>-1.83</v>
       </c>
       <c r="L29" s="2">
-        <v>-12.14</v>
+        <v>-12.28</v>
       </c>
       <c r="M29" s="2">
-        <v>6.86</v>
+        <v>6.68</v>
       </c>
       <c r="N29" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <v>0.79</v>
@@ -3512,36 +3597,36 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>10.45</v>
+        <v>10.41</v>
       </c>
       <c r="D31" s="2">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="E31" s="2">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="F31" s="2">
-        <v>3.98</v>
+        <v>3.95</v>
       </c>
       <c r="G31" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.46</v>
       </c>
       <c r="H31" s="2">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I31" s="2">
-        <v>-2.08</v>
+        <v>-2.09</v>
       </c>
       <c r="J31" s="2">
-        <v>-2.97</v>
+        <v>-2.98</v>
       </c>
       <c r="K31" s="2">
-        <v>-3.45</v>
+        <v>-3.46</v>
       </c>
       <c r="L31" s="2">
         <v>-12.26</v>
@@ -3551,30 +3636,30 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D32" s="2">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="E32" s="2">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F32" s="2">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G32" s="2">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H32" s="2">
         <v>0.4</v>
       </c>
       <c r="I32" s="2">
-        <v>-0.68</v>
+        <v>-0.69</v>
       </c>
       <c r="J32" s="2">
         <v>-0.89</v>
@@ -3590,9 +3675,9 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3607,7 +3692,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
         <v>0</v>
@@ -3646,9 +3731,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
         <v>21.35</v>
@@ -3687,9 +3772,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
         <v>25.38</v>
@@ -3728,9 +3813,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2">
         <v>0.03</v>
@@ -3767,9 +3852,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
         <v>1.41</v>
@@ -3778,13 +3863,13 @@
         <v>0.59</v>
       </c>
       <c r="E39" s="2">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="2">
-        <v>-0.87</v>
+        <v>-0.88</v>
       </c>
       <c r="G39" s="2">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H39" s="2">
         <v>0.56000000000000005</v>
@@ -3793,61 +3878,61 @@
         <v>0.42</v>
       </c>
       <c r="J39" s="2">
-        <v>-1.22</v>
+        <v>-1.21</v>
       </c>
       <c r="K39" s="2">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="L39" s="2">
-        <v>-1.21</v>
+        <v>-1.2</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
-        <v>9.19</v>
+        <v>9.02</v>
       </c>
       <c r="D40" s="2">
-        <v>5.75</v>
+        <v>5.58</v>
       </c>
       <c r="E40" s="2">
-        <v>5.34</v>
+        <v>5.17</v>
       </c>
       <c r="F40" s="2">
-        <v>0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="G40" s="2">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="H40" s="2">
-        <v>5.67</v>
+        <v>5.5</v>
       </c>
       <c r="I40" s="2">
-        <v>5.08</v>
+        <v>4.92</v>
       </c>
       <c r="J40" s="2">
-        <v>-1.95</v>
+        <v>-2.11</v>
       </c>
       <c r="K40" s="2">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="L40" s="2">
-        <v>-3.99</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="M40" s="2">
-        <v>-4.01</v>
+        <v>-4.17</v>
       </c>
       <c r="N40" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2">
         <v>0.75</v>
@@ -3884,36 +3969,36 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2">
-        <v>7.17</v>
+        <v>7.13</v>
       </c>
       <c r="D42" s="2">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="E42" s="2">
-        <v>3.29</v>
+        <v>3.25</v>
       </c>
       <c r="F42" s="2">
-        <v>-1.94</v>
+        <v>-1.97</v>
       </c>
       <c r="G42" s="2">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H42" s="2">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="I42" s="2">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="J42" s="2">
-        <v>-3.67</v>
+        <v>-3.68</v>
       </c>
       <c r="K42" s="2">
-        <v>-0.57999999999999996</v>
+        <v>-0.59</v>
       </c>
       <c r="L42" s="2">
         <v>-4.5599999999999996</v>
@@ -3923,21 +4008,21 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D43" s="2">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E43" s="2">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F43" s="2">
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="G43" s="2">
         <v>0.47</v>
@@ -3946,7 +4031,7 @@
         <v>0.93</v>
       </c>
       <c r="I43" s="2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J43" s="2">
         <v>-0.93</v>
@@ -3978,18 +4063,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A0CA3-ACCB-49A7-B2F6-AEE57C6FC935}">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4003,23 +4088,23 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
       <c r="H2" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -4055,9 +4140,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>18</v>
@@ -4093,9 +4178,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>18.27</v>
@@ -4131,9 +4216,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>0.03</v>
@@ -4169,12 +4254,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D7" s="2">
         <v>0.78</v>
@@ -4183,69 +4268,69 @@
         <v>-0.15</v>
       </c>
       <c r="F7" s="2">
-        <v>-1.19</v>
+        <v>-1.18</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.39</v>
+        <v>-0.37</v>
       </c>
       <c r="H7" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I7" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J7" s="2">
         <v>-0.56000000000000005</v>
       </c>
       <c r="K7" s="2">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="L7" s="2">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>6.18</v>
+        <v>6.01</v>
       </c>
       <c r="D8" s="2">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E8" s="2">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="F8" s="2">
-        <v>-2.52</v>
+        <v>-2.67</v>
       </c>
       <c r="G8" s="2">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.23</v>
       </c>
       <c r="H8" s="2">
-        <v>4.08</v>
+        <v>3.91</v>
       </c>
       <c r="I8" s="2">
-        <v>6.28</v>
+        <v>6.11</v>
       </c>
       <c r="J8" s="2">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K8" s="2">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="2">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="M8" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>0.55000000000000004</v>
@@ -4279,54 +4364,54 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="D10" s="2">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="E10" s="2">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F10" s="2">
         <v>-3.88</v>
       </c>
       <c r="G10" s="2">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H10" s="2">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="I10" s="2">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="J10" s="2">
-        <v>-0.83</v>
+        <v>-0.84</v>
       </c>
       <c r="K10" s="2">
         <v>-2.17</v>
       </c>
       <c r="L10" s="2">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="D11" s="2">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F11" s="2">
         <v>-0.89</v>
@@ -4335,10 +4420,10 @@
         <v>0.02</v>
       </c>
       <c r="H11" s="2">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I11" s="2">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J11" s="2">
         <v>-0.33</v>
@@ -4347,13 +4432,13 @@
         <v>-0.77</v>
       </c>
       <c r="L11" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4367,25 +4452,25 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -4421,9 +4506,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>17.73</v>
@@ -4459,9 +4544,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>23.43</v>
@@ -4497,9 +4582,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>0.02</v>
@@ -4535,21 +4620,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="2">
         <v>0.65</v>
       </c>
       <c r="E19" s="2">
-        <v>-1.35</v>
+        <v>-1.34</v>
       </c>
       <c r="F19" s="2">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G19" s="2">
         <v>-1.1000000000000001</v>
@@ -4558,60 +4643,60 @@
         <v>-1.24</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="J19" s="2">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="K19" s="2">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L19" s="2">
         <v>-0.19</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="D20" s="2">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="E20" s="2">
-        <v>-6.04</v>
+        <v>-6.19</v>
       </c>
       <c r="F20" s="2">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="G20" s="2">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="H20" s="2">
-        <v>-1.19</v>
+        <v>-1.35</v>
       </c>
       <c r="I20" s="2">
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
       <c r="J20" s="2">
-        <v>4.04</v>
+        <v>3.88</v>
       </c>
       <c r="K20" s="2">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="L20" s="2">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="M20" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>0.73</v>
@@ -4645,48 +4730,48 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="D22" s="2">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>-5.94</v>
+        <v>-5.93</v>
       </c>
       <c r="F22" s="2">
-        <v>5.01</v>
+        <v>4.95</v>
       </c>
       <c r="G22" s="2">
-        <v>-2.2599999999999998</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="H22" s="2">
-        <v>-3.33</v>
+        <v>-3.34</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="J22" s="2">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K22" s="2">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="L22" s="2">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4695,10 +4780,10 @@
         <v>-1.02</v>
       </c>
       <c r="F23" s="2">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.86</v>
+        <v>-0.87</v>
       </c>
       <c r="H23" s="2">
         <v>-0.99</v>
@@ -4707,19 +4792,19 @@
         <v>-0.1</v>
       </c>
       <c r="J23" s="2">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="K23" s="2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="L23" s="2">
         <v>0.15</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4733,25 +4818,25 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>0</v>
@@ -4787,9 +4872,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
         <v>22.64</v>
@@ -4825,9 +4910,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
         <v>20.73</v>
@@ -4863,9 +4948,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
         <v>0.04</v>
@@ -4901,12 +4986,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="D31" s="2">
         <v>0.74</v>
@@ -4915,7 +5000,7 @@
         <v>1.45</v>
       </c>
       <c r="F31" s="2">
-        <v>2.0299999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G31" s="2">
         <v>-0.11</v>
@@ -4924,7 +5009,7 @@
         <v>-0.08</v>
       </c>
       <c r="I31" s="2">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="J31" s="2">
         <v>-1.74</v>
@@ -4933,51 +5018,51 @@
         <v>-2.2799999999999998</v>
       </c>
       <c r="L31" s="2">
-        <v>-1.56</v>
+        <v>-1.54</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>10.35</v>
+        <v>10.18</v>
       </c>
       <c r="D32" s="2">
-        <v>5.98</v>
+        <v>5.81</v>
       </c>
       <c r="E32" s="2">
-        <v>10.16</v>
+        <v>9.99</v>
       </c>
       <c r="F32" s="2">
-        <v>8.5299999999999994</v>
+        <v>8.36</v>
       </c>
       <c r="G32" s="2">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="H32" s="2">
-        <v>3.07</v>
+        <v>2.91</v>
       </c>
       <c r="I32" s="2">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="J32" s="2">
-        <v>-2.5299999999999998</v>
+        <v>-2.69</v>
       </c>
       <c r="K32" s="2">
-        <v>-6.4</v>
+        <v>-6.55</v>
       </c>
       <c r="L32" s="2">
-        <v>-7.72</v>
+        <v>-7.87</v>
       </c>
       <c r="M32" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
         <v>0.65</v>
@@ -5011,60 +5096,60 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
-        <v>7.92</v>
+        <v>7.86</v>
       </c>
       <c r="D34" s="2">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="E34" s="2">
-        <v>8.44</v>
+        <v>8.43</v>
       </c>
       <c r="F34" s="2">
-        <v>5.97</v>
+        <v>5.91</v>
       </c>
       <c r="G34" s="2">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H34" s="2">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="I34" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="J34" s="2">
-        <v>-4.66</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="K34" s="2">
         <v>-8.02</v>
       </c>
       <c r="L34" s="2">
-        <v>-7.38</v>
+        <v>-7.36</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="D35" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E35" s="2">
         <v>1.89</v>
       </c>
       <c r="F35" s="2">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="G35" s="2">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H35" s="2">
         <v>0.18</v>
@@ -5073,19 +5158,19 @@
         <v>0.15</v>
       </c>
       <c r="J35" s="2">
-        <v>-1.48</v>
+        <v>-1.49</v>
       </c>
       <c r="K35" s="2">
-        <v>-2.04</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="L35" s="2">
         <v>-1.23</v>
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -5099,25 +5184,25 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -5153,9 +5238,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2">
         <v>18.420000000000002</v>
@@ -5191,9 +5276,9 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2">
         <v>19.25</v>
@@ -5229,9 +5314,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C42" s="2">
         <v>0.03</v>
@@ -5267,83 +5352,83 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="D43" s="2">
         <v>0.17</v>
       </c>
       <c r="E43" s="2">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="F43" s="2">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="G43" s="2">
         <v>-0.55000000000000004</v>
       </c>
       <c r="H43" s="2">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="I43" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="J43" s="2">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="K43" s="2">
-        <v>-0.81</v>
+        <v>-0.8</v>
       </c>
       <c r="L43" s="2">
-        <v>-1.55</v>
+        <v>-1.53</v>
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
-        <v>6.56</v>
+        <v>6.39</v>
       </c>
       <c r="D44" s="2">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="E44" s="2">
-        <v>8.16</v>
+        <v>7.99</v>
       </c>
       <c r="F44" s="2">
-        <v>4.91</v>
+        <v>4.74</v>
       </c>
       <c r="G44" s="2">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="H44" s="2">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="I44" s="2">
-        <v>4.49</v>
+        <v>4.32</v>
       </c>
       <c r="J44" s="2">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="K44" s="2">
-        <v>-0.73</v>
+        <v>-0.89</v>
       </c>
       <c r="L44" s="2">
-        <v>-8.44</v>
+        <v>-8.59</v>
       </c>
       <c r="M44" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
         <v>0.56999999999999995</v>
@@ -5377,69 +5462,69 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="D46" s="2">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="F46" s="2">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="G46" s="2">
-        <v>-0.83</v>
+        <v>-0.86</v>
       </c>
       <c r="H46" s="2">
         <v>0.94</v>
       </c>
       <c r="I46" s="2">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="J46" s="2">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="K46" s="2">
         <v>-2.15</v>
       </c>
       <c r="L46" s="2">
-        <v>-7.69</v>
+        <v>-7.67</v>
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="D47" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E47" s="2">
         <v>1.4</v>
       </c>
       <c r="F47" s="2">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G47" s="2">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H47" s="2">
         <v>0.26</v>
       </c>
       <c r="I47" s="2">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="J47" s="2">
-        <v>-0.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K47" s="2">
         <v>-0.49</v>
@@ -5451,13 +5536,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:M1"/>
@@ -5466,6 +5544,13 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5476,46 +5561,46 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2.34</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5529,7 +5614,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5540,29 +5625,29 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>-2.2599999999999998</v>
+        <v>-2.25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.97</v>
+        <v>-0.96</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -5571,12 +5656,12 @@
         <v>-2.0099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -5585,7 +5670,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5596,10 +5681,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5610,72 +5695,72 @@
         <v>7</v>
       </c>
       <c r="G10" s="2">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5689,35 +5774,35 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5728,10 +5813,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="2">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5745,35 +5830,35 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.81</v>
+        <v>-0.82</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -5787,7 +5872,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -5798,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -5817,18 +5902,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C651A25-6C8A-421B-87C7-4F2D4204948E}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -5843,7 +5928,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -5882,36 +5967,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>12.96</v>
       </c>
       <c r="D3" s="2">
-        <v>15.61</v>
+        <v>15.25</v>
       </c>
       <c r="E3" s="2">
-        <v>15.84</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>12.53</v>
+        <v>12.58</v>
       </c>
       <c r="G3" s="2">
-        <v>14.22</v>
+        <v>14.56</v>
       </c>
       <c r="H3" s="2">
-        <v>12.14</v>
+        <v>12.07</v>
       </c>
       <c r="I3" s="2">
-        <v>14.18</v>
+        <v>13.68</v>
       </c>
       <c r="J3" s="2">
-        <v>21.02</v>
+        <v>23.01</v>
       </c>
       <c r="K3" s="2">
-        <v>11.97</v>
+        <v>10.5</v>
       </c>
       <c r="L3" s="2">
         <v>11.87</v>
@@ -5923,15 +6008,15 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>17.329999999999998</v>
+        <v>17.34</v>
       </c>
       <c r="D4" s="2">
-        <v>19.920000000000002</v>
+        <v>19.91</v>
       </c>
       <c r="E4" s="2">
         <v>21.66</v>
@@ -5940,33 +6025,33 @@
         <v>23.88</v>
       </c>
       <c r="G4" s="2">
-        <v>26.39</v>
+        <v>26.38</v>
       </c>
       <c r="H4" s="2">
-        <v>28</v>
+        <v>27.99</v>
       </c>
       <c r="I4" s="2">
-        <v>29.87</v>
+        <v>29.9</v>
       </c>
       <c r="J4" s="2">
-        <v>31.42</v>
+        <v>31.54</v>
       </c>
       <c r="K4" s="2">
-        <v>34.299999999999997</v>
+        <v>34.18</v>
       </c>
       <c r="L4" s="2">
         <v>41.24</v>
       </c>
       <c r="M4" s="2">
-        <v>34.44</v>
+        <v>34.43</v>
       </c>
       <c r="N4" s="2">
         <v>26.26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>0.01</v>
@@ -5981,13 +6066,13 @@
         <v>0.01</v>
       </c>
       <c r="G5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H5" s="2">
         <v>0.01</v>
       </c>
       <c r="I5" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="2">
         <v>0.03</v>
@@ -6003,87 +6088,87 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="D6" s="2">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="2">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.16</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>-0.67</v>
+        <v>-0.68</v>
       </c>
       <c r="I6" s="2">
-        <v>-0.14000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="J6" s="2">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="K6" s="2">
-        <v>-0.63</v>
+        <v>-1.01</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.28999999999999998</v>
+        <v>-0.27</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="D7" s="2">
-        <v>4.03</v>
+        <v>3.53</v>
       </c>
       <c r="E7" s="2">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="F7" s="2">
-        <v>1.26</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="H7" s="2">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="I7" s="2">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="J7" s="2">
-        <v>8.9</v>
+        <v>10.51</v>
       </c>
       <c r="K7" s="2">
-        <v>0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="L7" s="2">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="2">
-        <v>-20.23</v>
+        <v>-20.350000000000001</v>
       </c>
       <c r="N7" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0.46</v>
@@ -6098,10 +6183,10 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="2">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="H8" s="2">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I8" s="2">
         <v>0.97</v>
@@ -6120,87 +6205,87 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="D9" s="2">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="F9" s="2">
         <v>-0.86</v>
       </c>
       <c r="G9" s="2">
-        <v>0.59</v>
+        <v>0.86</v>
       </c>
       <c r="H9" s="2">
-        <v>-1.28</v>
+        <v>-1.35</v>
       </c>
       <c r="I9" s="2">
-        <v>0.64</v>
+        <v>0.19</v>
       </c>
       <c r="J9" s="2">
-        <v>6.56</v>
+        <v>8.35</v>
       </c>
       <c r="K9" s="2">
-        <v>-1.32</v>
+        <v>-2.63</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="D10" s="2">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="E10" s="2">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F10" s="2">
         <v>-0.27</v>
       </c>
       <c r="G10" s="2">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="2">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="I10" s="2">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="2">
-        <v>1.83</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K10" s="2">
-        <v>-0.39</v>
+        <v>-0.79</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M10" s="2">
         <v>0.01</v>
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6215,7 +6300,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -6248,15 +6333,15 @@
         <v>9</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0.78</v>
@@ -6280,10 +6365,10 @@
         <v>1.38</v>
       </c>
       <c r="J14" s="2">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="K14" s="2">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L14" s="2">
         <v>1.88</v>
@@ -6295,9 +6380,9 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>-0.78</v>
@@ -6315,7 +6400,7 @@
         <v>-1.1599999999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>-1.28</v>
+        <v>-1.27</v>
       </c>
       <c r="I15" s="2">
         <v>-1.33</v>
@@ -6336,9 +6421,9 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>-10.3</v>
@@ -6377,9 +6462,9 @@
         <v>-14.89</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6387,7 +6472,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -6405,35 +6490,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>15.36</v>
+        <v>15.33</v>
       </c>
       <c r="D20" s="2">
         <v>13.9</v>
       </c>
       <c r="E20" s="2">
-        <v>15.65</v>
+        <v>15.68</v>
       </c>
       <c r="F20" s="2">
-        <v>-6.79</v>
+        <v>-6.83</v>
       </c>
       <c r="G20" s="2">
         <v>14.88</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>17.54</v>
       </c>
       <c r="D21" s="2">
-        <v>24.75</v>
+        <v>24.74</v>
       </c>
       <c r="E21" s="2">
         <v>34</v>
@@ -6445,9 +6530,9 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>0.02</v>
@@ -6463,45 +6548,45 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="D23" s="2">
         <v>-0.35</v>
       </c>
       <c r="E23" s="2">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="D24" s="2">
-        <v>2.48</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E24" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.92</v>
       </c>
       <c r="F24" s="2">
-        <v>-16.14</v>
+        <v>-16.309999999999999</v>
       </c>
       <c r="G24" s="2">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>0.56999999999999995</v>
@@ -6517,36 +6602,36 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="D26" s="2">
-        <v>-0.27</v>
+        <v>-0.3</v>
       </c>
       <c r="E26" s="2">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="E27" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F27" s="2">
         <v>0.01</v>
@@ -6568,10 +6653,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
